--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
   <si>
     <t>Project_ID</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>acq_bitpixel</t>
+  </si>
+  <si>
+    <t>object_annotation_category</t>
   </si>
   <si>
     <t>Variables</t>
@@ -690,6 +693,9 @@
       <c r="W2" t="s">
         <v>35</v>
       </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3">
@@ -728,6 +734,9 @@
       <c r="W3" t="s">
         <v>35</v>
       </c>
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4">
@@ -766,6 +775,9 @@
       <c r="W4" t="s">
         <v>35</v>
       </c>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5">
@@ -804,6 +816,9 @@
       <c r="W5" t="s">
         <v>35</v>
       </c>
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6">
@@ -842,6 +857,9 @@
       <c r="W6" t="s">
         <v>35</v>
       </c>
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7">
@@ -880,6 +898,9 @@
       <c r="W7" t="s">
         <v>35</v>
       </c>
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8">
@@ -918,6 +939,9 @@
       <c r="W8" t="s">
         <v>35</v>
       </c>
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9">
@@ -956,6 +980,9 @@
       <c r="W9" t="s">
         <v>35</v>
       </c>
+      <c r="Y9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10">
@@ -994,6 +1021,9 @@
       <c r="W10" t="s">
         <v>35</v>
       </c>
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11">
@@ -1031,6 +1061,9 @@
       </c>
       <c r="W11" t="s">
         <v>35</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1048,13 +1081,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1062,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1073,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1084,10 +1117,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1095,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1106,10 +1139,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1117,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1128,10 +1161,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1139,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1150,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1161,10 +1194,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1172,10 +1205,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1183,10 +1216,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1194,10 +1227,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1205,10 +1238,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1216,10 +1249,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1227,10 +1260,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1238,10 +1271,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1249,10 +1282,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1260,10 +1293,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1271,10 +1304,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1282,10 +1315,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1293,10 +1326,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1304,10 +1337,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1315,10 +1348,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1326,10 +1359,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb_LOV_orga/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A82BDE-6A67-6844-9DD5-C7056BA16F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="93">
   <si>
     <t>Project_ID</t>
   </si>
@@ -23,73 +29,91 @@
     <t>Instrument</t>
   </si>
   <si>
-    <t>Cruise.field</t>
-  </si>
-  <si>
-    <t>Station.field</t>
-  </si>
-  <si>
-    <t>Profile.field</t>
-  </si>
-  <si>
-    <t>Latitude.field</t>
-  </si>
-  <si>
-    <t>Latitude.unit</t>
-  </si>
-  <si>
-    <t>Longitude.field</t>
-  </si>
-  <si>
-    <t>Longitude.unit</t>
-  </si>
-  <si>
-    <t>Depth_min.field</t>
-  </si>
-  <si>
-    <t>Depth_min.unit</t>
-  </si>
-  <si>
-    <t>Depth_max.field</t>
-  </si>
-  <si>
-    <t>Depth_max.unit</t>
-  </si>
-  <si>
-    <t>Volume_analyzed.field</t>
-  </si>
-  <si>
-    <t>Volume_analyzed.unit</t>
-  </si>
-  <si>
-    <t>Dilution.field</t>
-  </si>
-  <si>
-    <t>ESD.field</t>
-  </si>
-  <si>
-    <t>ESD.unit</t>
-  </si>
-  <si>
-    <t>Biovolume.field</t>
-  </si>
-  <si>
-    <t>Biovolume.unit</t>
-  </si>
-  <si>
-    <t>Area.field</t>
-  </si>
-  <si>
-    <t>Area.unit</t>
-  </si>
-  <si>
-    <t>Pixel.field</t>
-  </si>
-  <si>
-    <t>Pixel.unit</t>
-  </si>
-  <si>
-    <t>Category.field</t>
+    <t>Cruise_field</t>
+  </si>
+  <si>
+    <t>Station_field</t>
+  </si>
+  <si>
+    <t>Profile_field</t>
+  </si>
+  <si>
+    <t>Latitude_field</t>
+  </si>
+  <si>
+    <t>Latitude_unit</t>
+  </si>
+  <si>
+    <t>Longitude_field</t>
+  </si>
+  <si>
+    <t>Longitude_unit</t>
+  </si>
+  <si>
+    <t>Depth_min_field</t>
+  </si>
+  <si>
+    <t>Depth_min_unit</t>
+  </si>
+  <si>
+    <t>Depth_max_field</t>
+  </si>
+  <si>
+    <t>Depth_max_unit</t>
+  </si>
+  <si>
+    <t>Sampling_date_field</t>
+  </si>
+  <si>
+    <t>Sampling_time_field</t>
+  </si>
+  <si>
+    <t>Volume_analyzed_field</t>
+  </si>
+  <si>
+    <t>Volume_analyzed_unit</t>
+  </si>
+  <si>
+    <t>Dilution_field</t>
+  </si>
+  <si>
+    <t>ESD_field</t>
+  </si>
+  <si>
+    <t>ESD_unit</t>
+  </si>
+  <si>
+    <t>Biovolume_field</t>
+  </si>
+  <si>
+    <t>Biovolume_unit</t>
+  </si>
+  <si>
+    <t>Area_field</t>
+  </si>
+  <si>
+    <t>Area_unit</t>
+  </si>
+  <si>
+    <t>Minor_axis_field</t>
+  </si>
+  <si>
+    <t>Minor_axis_unit</t>
+  </si>
+  <si>
+    <t>Pixel_field</t>
+  </si>
+  <si>
+    <t>Pixel_unit</t>
+  </si>
+  <si>
+    <t>Category_field</t>
+  </si>
+  <si>
+    <t>Missing_index</t>
+  </si>
+  <si>
+    <t>EcoPart_project</t>
   </si>
   <si>
     <t>Zooscan</t>
@@ -113,16 +137,16 @@
     <t>object_depth_max</t>
   </si>
   <si>
+    <t>object_date</t>
+  </si>
+  <si>
+    <t>object_time</t>
+  </si>
+  <si>
     <t>sample_tot_vol</t>
   </si>
   <si>
-    <t>object_esd</t>
-  </si>
-  <si>
-    <t>object_area</t>
-  </si>
-  <si>
-    <t>acq_bitpixel</t>
+    <t>object_minor</t>
   </si>
   <si>
     <t>object_annotation_category</t>
@@ -182,6 +206,12 @@
     <t>Unit of the maximum depth column in project export file</t>
   </si>
   <si>
+    <t>Name of the sampling date (yyyymmdd in UTC) column in project export file</t>
+  </si>
+  <si>
+    <t>Name of the sampling time (hhmmss in UTC) column in project export file</t>
+  </si>
+  <si>
     <t>Name of the sample volume analyzed column in project export file</t>
   </si>
   <si>
@@ -209,6 +239,12 @@
     <t>Unit of the area column in project export file</t>
   </si>
   <si>
+    <t>Name of the minor ellipsoidal axis column in project export file</t>
+  </si>
+  <si>
+    <t>Unit of the minor ellipsoidal axis column in project export file</t>
+  </si>
+  <si>
     <t>Name of the pixel conversion factor column in project export file</t>
   </si>
   <si>
@@ -216,13 +252,61 @@
   </si>
   <si>
     <t>Name of the category ID column in project export file</t>
+  </si>
+  <si>
+    <t>Index of the observations with missing values. Corresponding index will be removed for further processing since they generate incomplete datasets</t>
+  </si>
+  <si>
+    <t>ID of corresponding EcoPart project (*UVP-only).</t>
+  </si>
+  <si>
+    <t>process_particle_pixel_size_mm</t>
+  </si>
+  <si>
+    <t>acq_sub_part</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>sample_tow_nb</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>square_pixel</t>
+  </si>
+  <si>
+    <t>cubic_meter</t>
+  </si>
+  <si>
+    <t>millimeter_per_pixel</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>object_area,object_area_exc</t>
+  </si>
+  <si>
+    <t>Keeping empty field. This field have been approximated in certain versions of Zooprocess but contains bug</t>
+  </si>
+  <si>
+    <t>Empty field.  This field is not approximated by Zooprocess</t>
+  </si>
+  <si>
+    <t>Extracting 'object_area' (without holes) and 'object_area_exc' (filling the holes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +322,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,13 +360,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -285,6 +389,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -331,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,9 +475,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,6 +527,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,14 +720,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="R1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,714 +825,1178 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>377</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
+        <v>80</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X2" t="s">
+        <v>85</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>378</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
       </c>
       <c r="W3" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X3" t="s">
+        <v>85</v>
       </c>
       <c r="Y3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>395</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>80</v>
       </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X4" t="s">
+        <v>85</v>
       </c>
       <c r="Y4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>84</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
       </c>
       <c r="W5" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>398</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
       </c>
       <c r="N6" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>80</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>412</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R7" t="s">
+        <v>80</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>714</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
       </c>
       <c r="W8" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
       </c>
       <c r="Y8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3657</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>40</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
       </c>
       <c r="W9" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X9" t="s">
+        <v>85</v>
       </c>
       <c r="Y9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4533</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
+        <v>84</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
       </c>
       <c r="W10" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X10" t="s">
+        <v>85</v>
       </c>
       <c r="Y10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>41</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4534</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
       </c>
       <c r="W11" t="s">
-        <v>35</v>
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>85</v>
       </c>
       <c r="Y11" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb_LOV_orga/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A469D2B7-EA15-964F-A492-977F9F265705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A0C128-66DC-394D-A713-FF8A8675061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="28160" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34300" yWindow="-300" windowWidth="23600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1107,13 +1107,13 @@
   <dimension ref="A1:AS94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76:AS76"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B876F-4005-764F-80E1-1A5934B85428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8C1549-1138-3F4F-BB75-71F6B8DFD16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34300" yWindow="-300" windowWidth="23600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
     <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
   </si>
   <si>
-    <t>~/GIT/PSSdb/raw/API/Zooscan</t>
+    <t>~/GIT/PSSdb/raw/ecotaxa/Zooscan</t>
   </si>
 </sst>
 </file>
@@ -1106,58 +1106,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C77" sqref="C77:C94"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.2">

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F8163-D8FC-4147-A4F5-CBD4819ECCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="21180" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="223">
   <si>
     <t>Project_ID</t>
   </si>
@@ -503,12 +509,12 @@
     <t>pixel</t>
   </si>
   <si>
+    <t>process_particle_pixel_size_µm</t>
+  </si>
+  <si>
     <t>process_particle_pixel_size_mm</t>
   </si>
   <si>
-    <t>process_particle_pixel_size_µm</t>
-  </si>
-  <si>
     <t>millimeter_per_pixel</t>
   </si>
   <si>
@@ -516,225 +522,6 @@
   </si>
   <si>
     <t>object_annotation_status</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_377_20220609_1300_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_378_20220609_1307_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_395_20220829_1522_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_397_20220829_1524_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_412_20220829_1532_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_663_20220914_1519_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_714_20220609_1343_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_751_20220914_1523_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_968_20220914_1525_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2291_20220914_1525_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2307_20220914_1535_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2771_20220829_1557_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_411_20221012_1011_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_415_20221012_1011_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_416_20221012_1013_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_418_20221012_1014_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_493_20221012_1020_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_580_20221012_1022_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_581_20221012_1024_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_652_20221012_1024_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_734_20221012_1026_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_758_20221012_1032_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_788_20221012_1033_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_790_20221012_1034_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_798_20221012_1034_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_896_20221012_1034_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_1309_20221012_1035_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_1603_20221012_1036_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_1606_20221012_1037_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_1700_20221012_1037_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2480_20221012_1039_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2535_20221012_1040_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2668_20221012_1040_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2670_20221012_1041_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2687_20221012_1041_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2717_20221012_1042_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2805_20221012_1043_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2832_20221012_1043_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_2960_20221012_1044_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3119_20221012_1049_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3124_20221012_1049_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3125_20221012_1050_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3127_20221012_1050_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3128_20221012_1051_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3129_20221012_1052_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3130_20221012_1052_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3131_20221012_1053_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3132_20221012_1053_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3159_20221012_1054_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3160_20221012_1054_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3162_20221012_1055_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3163_20221012_1055_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3165_20221012_1056_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3166_20221012_1056_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_3391_20221012_1057_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_4024_20221012_1100_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_4025_20221012_1100_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_4172_20221012_1100_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_4429_20221012_1100_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_4598_20221012_1133_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_4904_20221012_1134_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_5930_20221012_1142_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6044_20221012_1143_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6048_20221012_1143_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6262_20221012_1144_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6270_20221012_1145_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6280_20221012_1146_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6307_20221012_1146_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6341_20221012_1147_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6342_20221012_1147_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6343_20221012_1147_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6358_20221012_1147_flags.tsv</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/Zooscan/ecotaxa_export_6729_20221012_1148_flags.tsv</t>
   </si>
   <si>
     <t>sample_net_type</t>
@@ -908,8 +695,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -985,6 +772,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1031,7 +826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,9 +858,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,6 +910,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1272,14 +1103,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>167</v>
       </c>
@@ -1517,25 +1350,25 @@
         <v>999999</v>
       </c>
       <c r="AN2" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO2" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP2" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ2" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR2" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>171</v>
       </c>
@@ -1636,25 +1469,25 @@
         <v>999999</v>
       </c>
       <c r="AN3" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO3" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="AP3" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ3" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR3" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>174</v>
       </c>
@@ -1755,25 +1588,25 @@
         <v>999999</v>
       </c>
       <c r="AN4" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO4" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP4" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ4" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR4" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>377</v>
       </c>
@@ -1859,7 +1692,7 @@
         <v>161</v>
       </c>
       <c r="AG5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH5" t="s">
         <v>164</v>
@@ -1870,32 +1703,29 @@
       <c r="AJ5" t="s">
         <v>166</v>
       </c>
-      <c r="AK5" t="s">
-        <v>167</v>
-      </c>
       <c r="AL5">
         <v>999999</v>
       </c>
       <c r="AN5" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO5" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP5" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ5" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR5" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>378</v>
       </c>
@@ -1981,7 +1811,7 @@
         <v>161</v>
       </c>
       <c r="AG6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH6" t="s">
         <v>164</v>
@@ -1992,32 +1822,29 @@
       <c r="AJ6" t="s">
         <v>166</v>
       </c>
-      <c r="AK6" t="s">
-        <v>168</v>
-      </c>
       <c r="AL6">
         <v>9999</v>
       </c>
       <c r="AN6" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO6" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP6" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ6" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR6" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>395</v>
       </c>
@@ -2103,7 +1930,7 @@
         <v>161</v>
       </c>
       <c r="AG7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH7" t="s">
         <v>164</v>
@@ -2114,32 +1941,29 @@
       <c r="AJ7" t="s">
         <v>166</v>
       </c>
-      <c r="AK7" t="s">
-        <v>169</v>
-      </c>
       <c r="AL7">
         <v>9999</v>
       </c>
       <c r="AN7" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO7" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP7" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ7" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR7" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>397</v>
       </c>
@@ -2225,7 +2049,7 @@
         <v>161</v>
       </c>
       <c r="AG8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH8" t="s">
         <v>164</v>
@@ -2236,32 +2060,29 @@
       <c r="AJ8" t="s">
         <v>166</v>
       </c>
-      <c r="AK8" t="s">
-        <v>170</v>
-      </c>
       <c r="AL8">
         <v>9999</v>
       </c>
       <c r="AN8" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO8" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP8" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ8" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR8" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>398</v>
       </c>
@@ -2362,25 +2183,25 @@
         <v>999999</v>
       </c>
       <c r="AN9" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO9" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP9" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ9" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR9" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>412</v>
       </c>
@@ -2466,7 +2287,7 @@
         <v>161</v>
       </c>
       <c r="AG10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH10" t="s">
         <v>164</v>
@@ -2477,32 +2298,29 @@
       <c r="AJ10" t="s">
         <v>166</v>
       </c>
-      <c r="AK10" t="s">
-        <v>171</v>
-      </c>
       <c r="AL10">
         <v>9999</v>
       </c>
       <c r="AN10" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO10" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP10" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ10" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR10" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>663</v>
       </c>
@@ -2588,7 +2406,7 @@
         <v>161</v>
       </c>
       <c r="AG11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH11" t="s">
         <v>164</v>
@@ -2599,32 +2417,29 @@
       <c r="AJ11" t="s">
         <v>166</v>
       </c>
-      <c r="AK11" t="s">
-        <v>172</v>
-      </c>
       <c r="AL11">
         <v>999999</v>
       </c>
       <c r="AN11" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO11" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP11" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ11" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR11" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>714</v>
       </c>
@@ -2710,7 +2525,7 @@
         <v>161</v>
       </c>
       <c r="AG12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH12" t="s">
         <v>164</v>
@@ -2721,32 +2536,29 @@
       <c r="AJ12" t="s">
         <v>166</v>
       </c>
-      <c r="AK12" t="s">
-        <v>173</v>
-      </c>
       <c r="AL12">
         <v>9999</v>
       </c>
       <c r="AN12" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO12" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP12" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ12" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR12" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>751</v>
       </c>
@@ -2832,7 +2644,7 @@
         <v>161</v>
       </c>
       <c r="AG13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH13" t="s">
         <v>164</v>
@@ -2843,32 +2655,29 @@
       <c r="AJ13" t="s">
         <v>166</v>
       </c>
-      <c r="AK13" t="s">
-        <v>174</v>
-      </c>
       <c r="AL13">
         <v>999999</v>
       </c>
       <c r="AN13" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP13" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ13" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR13" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>752</v>
       </c>
@@ -2969,25 +2778,25 @@
         <v>999999</v>
       </c>
       <c r="AN14" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO14" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP14" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ14" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR14" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>966</v>
       </c>
@@ -3088,25 +2897,25 @@
         <v>999999</v>
       </c>
       <c r="AN15" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO15" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP15" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ15" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR15" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>967</v>
       </c>
@@ -3207,25 +3016,25 @@
         <v>999999</v>
       </c>
       <c r="AN16" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO16" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP16" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ16" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR16" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>968</v>
       </c>
@@ -3311,7 +3120,7 @@
         <v>161</v>
       </c>
       <c r="AG17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH17" t="s">
         <v>164</v>
@@ -3322,32 +3131,29 @@
       <c r="AJ17" t="s">
         <v>166</v>
       </c>
-      <c r="AK17" t="s">
-        <v>175</v>
-      </c>
       <c r="AL17">
         <v>999999</v>
       </c>
       <c r="AN17" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO17" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP17" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ17" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR17" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2291</v>
       </c>
@@ -3433,7 +3239,7 @@
         <v>161</v>
       </c>
       <c r="AG18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH18" t="s">
         <v>164</v>
@@ -3444,32 +3250,29 @@
       <c r="AJ18" t="s">
         <v>166</v>
       </c>
-      <c r="AK18" t="s">
-        <v>176</v>
-      </c>
       <c r="AL18">
         <v>999999</v>
       </c>
       <c r="AN18" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO18" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="AP18" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ18" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR18" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2307</v>
       </c>
@@ -3555,7 +3358,7 @@
         <v>161</v>
       </c>
       <c r="AG19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH19" t="s">
         <v>164</v>
@@ -3566,32 +3369,29 @@
       <c r="AJ19" t="s">
         <v>166</v>
       </c>
-      <c r="AK19" t="s">
-        <v>177</v>
-      </c>
       <c r="AL19">
         <v>999999</v>
       </c>
       <c r="AN19" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO19" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP19" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ19" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR19" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2771</v>
       </c>
@@ -3677,7 +3477,7 @@
         <v>161</v>
       </c>
       <c r="AG20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH20" t="s">
         <v>164</v>
@@ -3688,32 +3488,29 @@
       <c r="AJ20" t="s">
         <v>166</v>
       </c>
-      <c r="AK20" t="s">
-        <v>178</v>
-      </c>
       <c r="AL20">
         <v>999999</v>
       </c>
       <c r="AN20" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO20" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="AP20" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ20" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR20" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3607</v>
       </c>
@@ -3799,7 +3596,7 @@
         <v>161</v>
       </c>
       <c r="AG21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH21" t="s">
         <v>164</v>
@@ -3814,25 +3611,25 @@
         <v>999999</v>
       </c>
       <c r="AN21" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO21" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP21" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ21" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR21" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3657</v>
       </c>
@@ -3918,7 +3715,7 @@
         <v>161</v>
       </c>
       <c r="AG22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH22" t="s">
         <v>164</v>
@@ -3933,25 +3730,25 @@
         <v>999999</v>
       </c>
       <c r="AN22" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO22" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP22" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ22" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR22" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4533</v>
       </c>
@@ -4037,7 +3834,7 @@
         <v>161</v>
       </c>
       <c r="AG23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH23" t="s">
         <v>164</v>
@@ -4052,25 +3849,25 @@
         <v>999999</v>
       </c>
       <c r="AN23" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO23" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP23" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ23" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR23" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4534</v>
       </c>
@@ -4156,7 +3953,7 @@
         <v>161</v>
       </c>
       <c r="AG24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH24" t="s">
         <v>164</v>
@@ -4171,25 +3968,25 @@
         <v>999999</v>
       </c>
       <c r="AN24" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO24" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP24" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ24" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR24" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5785</v>
       </c>
@@ -4275,7 +4072,7 @@
         <v>161</v>
       </c>
       <c r="AG25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH25" t="s">
         <v>164</v>
@@ -4287,25 +4084,25 @@
         <v>166</v>
       </c>
       <c r="AN25" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO25" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP25" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ25" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR25" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6111</v>
       </c>
@@ -4391,7 +4188,7 @@
         <v>161</v>
       </c>
       <c r="AG26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH26" t="s">
         <v>164</v>
@@ -4406,25 +4203,25 @@
         <v>999999</v>
       </c>
       <c r="AN26" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO26" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP26" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ26" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR26" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6579</v>
       </c>
@@ -4440,9 +4237,6 @@
       <c r="E27" t="s">
         <v>140</v>
       </c>
-      <c r="F27" t="s">
-        <v>141</v>
-      </c>
       <c r="G27" t="s">
         <v>142</v>
       </c>
@@ -4510,7 +4304,7 @@
         <v>161</v>
       </c>
       <c r="AG27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH27" t="s">
         <v>164</v>
@@ -4525,25 +4319,25 @@
         <v>999999</v>
       </c>
       <c r="AN27" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO27" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP27" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ27" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR27" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>14</v>
       </c>
@@ -4629,7 +4423,7 @@
         <v>161</v>
       </c>
       <c r="AG28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH28" t="s">
         <v>164</v>
@@ -4644,25 +4438,25 @@
         <v>999999</v>
       </c>
       <c r="AN28" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO28" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP28" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ28" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR28" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>338</v>
       </c>
@@ -4748,7 +4542,7 @@
         <v>161</v>
       </c>
       <c r="AG29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH29" t="s">
         <v>164</v>
@@ -4763,25 +4557,25 @@
         <v>999999</v>
       </c>
       <c r="AN29" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO29" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP29" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ29" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR29" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>381</v>
       </c>
@@ -4867,7 +4661,7 @@
         <v>161</v>
       </c>
       <c r="AG30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH30" t="s">
         <v>164</v>
@@ -4882,25 +4676,25 @@
         <v>9999</v>
       </c>
       <c r="AN30" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO30" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP30" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ30" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR30" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>408</v>
       </c>
@@ -4986,7 +4780,7 @@
         <v>161</v>
       </c>
       <c r="AG31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH31" t="s">
         <v>164</v>
@@ -5001,25 +4795,25 @@
         <v>9999</v>
       </c>
       <c r="AN31" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO31" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP31" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ31" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR31" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>409</v>
       </c>
@@ -5105,7 +4899,7 @@
         <v>161</v>
       </c>
       <c r="AG32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH32" t="s">
         <v>164</v>
@@ -5120,25 +4914,25 @@
         <v>9999</v>
       </c>
       <c r="AN32" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO32" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP32" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ32" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR32" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>411</v>
       </c>
@@ -5224,7 +5018,7 @@
         <v>161</v>
       </c>
       <c r="AG33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH33" t="s">
         <v>164</v>
@@ -5235,32 +5029,29 @@
       <c r="AJ33" t="s">
         <v>166</v>
       </c>
-      <c r="AK33" t="s">
-        <v>179</v>
-      </c>
       <c r="AL33">
         <v>999999</v>
       </c>
       <c r="AN33" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO33" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP33" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ33" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR33" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS33" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>415</v>
       </c>
@@ -5346,7 +5137,7 @@
         <v>161</v>
       </c>
       <c r="AG34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH34" t="s">
         <v>164</v>
@@ -5357,32 +5148,29 @@
       <c r="AJ34" t="s">
         <v>166</v>
       </c>
-      <c r="AK34" t="s">
-        <v>180</v>
-      </c>
       <c r="AL34">
         <v>9999</v>
       </c>
       <c r="AN34" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO34" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP34" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ34" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR34" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS34" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>416</v>
       </c>
@@ -5468,7 +5256,7 @@
         <v>161</v>
       </c>
       <c r="AG35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH35" t="s">
         <v>164</v>
@@ -5479,32 +5267,29 @@
       <c r="AJ35" t="s">
         <v>166</v>
       </c>
-      <c r="AK35" t="s">
-        <v>181</v>
-      </c>
       <c r="AL35">
         <v>9999</v>
       </c>
       <c r="AN35" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO35" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP35" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ35" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR35" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS35" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>418</v>
       </c>
@@ -5590,7 +5375,7 @@
         <v>161</v>
       </c>
       <c r="AG36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH36" t="s">
         <v>164</v>
@@ -5601,32 +5386,29 @@
       <c r="AJ36" t="s">
         <v>166</v>
       </c>
-      <c r="AK36" t="s">
-        <v>182</v>
-      </c>
       <c r="AL36">
         <v>9999</v>
       </c>
       <c r="AN36" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO36" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP36" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ36" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR36" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>493</v>
       </c>
@@ -5712,7 +5494,7 @@
         <v>161</v>
       </c>
       <c r="AG37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH37" t="s">
         <v>164</v>
@@ -5723,32 +5505,29 @@
       <c r="AJ37" t="s">
         <v>166</v>
       </c>
-      <c r="AK37" t="s">
-        <v>183</v>
-      </c>
       <c r="AL37">
         <v>999999</v>
       </c>
       <c r="AN37" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO37" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP37" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ37" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR37" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>580</v>
       </c>
@@ -5834,7 +5613,7 @@
         <v>161</v>
       </c>
       <c r="AG38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH38" t="s">
         <v>164</v>
@@ -5845,32 +5624,29 @@
       <c r="AJ38" t="s">
         <v>166</v>
       </c>
-      <c r="AK38" t="s">
-        <v>184</v>
-      </c>
       <c r="AL38">
         <v>999999</v>
       </c>
       <c r="AN38" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO38" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP38" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ38" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR38" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>581</v>
       </c>
@@ -5956,7 +5732,7 @@
         <v>161</v>
       </c>
       <c r="AG39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH39" t="s">
         <v>164</v>
@@ -5967,32 +5743,29 @@
       <c r="AJ39" t="s">
         <v>166</v>
       </c>
-      <c r="AK39" t="s">
-        <v>185</v>
-      </c>
       <c r="AL39">
         <v>999999</v>
       </c>
       <c r="AN39" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO39" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP39" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ39" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR39" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS39" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>652</v>
       </c>
@@ -6078,7 +5851,7 @@
         <v>161</v>
       </c>
       <c r="AG40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH40" t="s">
         <v>164</v>
@@ -6089,32 +5862,29 @@
       <c r="AJ40" t="s">
         <v>166</v>
       </c>
-      <c r="AK40" t="s">
-        <v>186</v>
-      </c>
       <c r="AL40">
         <v>999999</v>
       </c>
       <c r="AN40" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO40" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP40" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ40" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR40" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>734</v>
       </c>
@@ -6200,7 +5970,7 @@
         <v>161</v>
       </c>
       <c r="AG41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH41" t="s">
         <v>164</v>
@@ -6211,32 +5981,29 @@
       <c r="AJ41" t="s">
         <v>166</v>
       </c>
-      <c r="AK41" t="s">
-        <v>187</v>
-      </c>
       <c r="AL41">
         <v>999999</v>
       </c>
       <c r="AN41" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO41" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP41" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ41" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR41" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>758</v>
       </c>
@@ -6322,7 +6089,7 @@
         <v>161</v>
       </c>
       <c r="AG42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH42" t="s">
         <v>164</v>
@@ -6333,32 +6100,29 @@
       <c r="AJ42" t="s">
         <v>166</v>
       </c>
-      <c r="AK42" t="s">
-        <v>188</v>
-      </c>
       <c r="AL42">
         <v>999999</v>
       </c>
       <c r="AN42" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO42" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP42" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ42" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR42" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS42" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>788</v>
       </c>
@@ -6444,7 +6208,7 @@
         <v>161</v>
       </c>
       <c r="AG43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH43" t="s">
         <v>164</v>
@@ -6455,32 +6219,29 @@
       <c r="AJ43" t="s">
         <v>166</v>
       </c>
-      <c r="AK43" t="s">
-        <v>189</v>
-      </c>
       <c r="AL43">
         <v>999999</v>
       </c>
       <c r="AN43" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO43" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP43" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ43" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR43" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>790</v>
       </c>
@@ -6566,7 +6327,7 @@
         <v>161</v>
       </c>
       <c r="AG44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH44" t="s">
         <v>164</v>
@@ -6577,32 +6338,29 @@
       <c r="AJ44" t="s">
         <v>166</v>
       </c>
-      <c r="AK44" t="s">
-        <v>190</v>
-      </c>
       <c r="AL44">
         <v>999999</v>
       </c>
       <c r="AN44" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO44" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP44" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ44" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR44" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>798</v>
       </c>
@@ -6688,7 +6446,7 @@
         <v>161</v>
       </c>
       <c r="AG45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH45" t="s">
         <v>164</v>
@@ -6699,32 +6457,29 @@
       <c r="AJ45" t="s">
         <v>166</v>
       </c>
-      <c r="AK45" t="s">
-        <v>191</v>
-      </c>
       <c r="AL45">
         <v>999999</v>
       </c>
       <c r="AN45" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO45" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP45" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ45" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR45" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS45" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>896</v>
       </c>
@@ -6810,7 +6565,7 @@
         <v>161</v>
       </c>
       <c r="AG46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH46" t="s">
         <v>164</v>
@@ -6821,32 +6576,29 @@
       <c r="AJ46" t="s">
         <v>166</v>
       </c>
-      <c r="AK46" t="s">
-        <v>192</v>
-      </c>
       <c r="AL46">
         <v>999999</v>
       </c>
       <c r="AN46" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO46" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP46" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ46" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR46" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1309</v>
       </c>
@@ -6932,7 +6684,7 @@
         <v>161</v>
       </c>
       <c r="AG47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH47" t="s">
         <v>164</v>
@@ -6943,32 +6695,29 @@
       <c r="AJ47" t="s">
         <v>166</v>
       </c>
-      <c r="AK47" t="s">
-        <v>193</v>
-      </c>
       <c r="AL47">
         <v>999999</v>
       </c>
       <c r="AN47" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO47" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP47" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ47" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR47" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS47" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1603</v>
       </c>
@@ -7054,7 +6803,7 @@
         <v>161</v>
       </c>
       <c r="AG48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH48" t="s">
         <v>164</v>
@@ -7065,32 +6814,29 @@
       <c r="AJ48" t="s">
         <v>166</v>
       </c>
-      <c r="AK48" t="s">
-        <v>194</v>
-      </c>
       <c r="AL48">
         <v>999999</v>
       </c>
       <c r="AN48" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO48" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP48" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ48" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR48" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS48" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="49" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1606</v>
       </c>
@@ -7176,7 +6922,7 @@
         <v>161</v>
       </c>
       <c r="AG49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH49" t="s">
         <v>164</v>
@@ -7187,32 +6933,29 @@
       <c r="AJ49" t="s">
         <v>166</v>
       </c>
-      <c r="AK49" t="s">
-        <v>195</v>
-      </c>
       <c r="AL49">
         <v>999999</v>
       </c>
       <c r="AN49" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO49" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP49" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ49" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR49" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS49" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1700</v>
       </c>
@@ -7298,7 +7041,7 @@
         <v>161</v>
       </c>
       <c r="AG50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH50" t="s">
         <v>164</v>
@@ -7309,32 +7052,29 @@
       <c r="AJ50" t="s">
         <v>166</v>
       </c>
-      <c r="AK50" t="s">
-        <v>196</v>
-      </c>
       <c r="AL50">
         <v>999999</v>
       </c>
       <c r="AN50" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO50" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP50" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ50" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR50" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2480</v>
       </c>
@@ -7420,7 +7160,7 @@
         <v>161</v>
       </c>
       <c r="AG51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH51" t="s">
         <v>164</v>
@@ -7431,32 +7171,29 @@
       <c r="AJ51" t="s">
         <v>166</v>
       </c>
-      <c r="AK51" t="s">
-        <v>197</v>
-      </c>
       <c r="AL51">
         <v>999999</v>
       </c>
       <c r="AN51" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO51" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP51" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ51" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR51" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2535</v>
       </c>
@@ -7542,7 +7279,7 @@
         <v>161</v>
       </c>
       <c r="AG52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH52" t="s">
         <v>164</v>
@@ -7553,32 +7290,29 @@
       <c r="AJ52" t="s">
         <v>166</v>
       </c>
-      <c r="AK52" t="s">
-        <v>198</v>
-      </c>
       <c r="AL52">
         <v>999999</v>
       </c>
       <c r="AN52" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO52" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP52" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ52" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR52" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS52" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2668</v>
       </c>
@@ -7664,7 +7398,7 @@
         <v>161</v>
       </c>
       <c r="AG53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH53" t="s">
         <v>164</v>
@@ -7675,32 +7409,29 @@
       <c r="AJ53" t="s">
         <v>166</v>
       </c>
-      <c r="AK53" t="s">
-        <v>199</v>
-      </c>
       <c r="AL53">
         <v>999</v>
       </c>
       <c r="AN53" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO53" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP53" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ53" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR53" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS53" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2670</v>
       </c>
@@ -7786,7 +7517,7 @@
         <v>161</v>
       </c>
       <c r="AG54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH54" t="s">
         <v>164</v>
@@ -7797,32 +7528,29 @@
       <c r="AJ54" t="s">
         <v>166</v>
       </c>
-      <c r="AK54" t="s">
-        <v>200</v>
-      </c>
       <c r="AL54">
         <v>999</v>
       </c>
       <c r="AN54" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO54" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP54" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ54" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR54" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS54" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2687</v>
       </c>
@@ -7908,7 +7636,7 @@
         <v>161</v>
       </c>
       <c r="AG55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH55" t="s">
         <v>164</v>
@@ -7919,32 +7647,29 @@
       <c r="AJ55" t="s">
         <v>166</v>
       </c>
-      <c r="AK55" t="s">
-        <v>201</v>
-      </c>
       <c r="AL55">
         <v>999</v>
       </c>
       <c r="AN55" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO55" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP55" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ55" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR55" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2717</v>
       </c>
@@ -8030,7 +7755,7 @@
         <v>161</v>
       </c>
       <c r="AG56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH56" t="s">
         <v>164</v>
@@ -8041,32 +7766,29 @@
       <c r="AJ56" t="s">
         <v>166</v>
       </c>
-      <c r="AK56" t="s">
-        <v>202</v>
-      </c>
       <c r="AL56">
         <v>999999</v>
       </c>
       <c r="AN56" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO56" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP56" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ56" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR56" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS56" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2805</v>
       </c>
@@ -8152,7 +7874,7 @@
         <v>161</v>
       </c>
       <c r="AG57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH57" t="s">
         <v>164</v>
@@ -8163,32 +7885,29 @@
       <c r="AJ57" t="s">
         <v>166</v>
       </c>
-      <c r="AK57" t="s">
-        <v>203</v>
-      </c>
       <c r="AL57">
         <v>99999</v>
       </c>
       <c r="AN57" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO57" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP57" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ57" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR57" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2832</v>
       </c>
@@ -8274,7 +7993,7 @@
         <v>161</v>
       </c>
       <c r="AG58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH58" t="s">
         <v>164</v>
@@ -8285,32 +8004,29 @@
       <c r="AJ58" t="s">
         <v>166</v>
       </c>
-      <c r="AK58" t="s">
-        <v>204</v>
-      </c>
       <c r="AL58">
         <v>999999</v>
       </c>
       <c r="AN58" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO58" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP58" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ58" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR58" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS58" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="59" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2960</v>
       </c>
@@ -8396,7 +8112,7 @@
         <v>161</v>
       </c>
       <c r="AG59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH59" t="s">
         <v>164</v>
@@ -8407,32 +8123,29 @@
       <c r="AJ59" t="s">
         <v>166</v>
       </c>
-      <c r="AK59" t="s">
-        <v>205</v>
-      </c>
       <c r="AL59">
         <v>999</v>
       </c>
       <c r="AN59" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO59" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP59" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ59" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR59" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS59" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3119</v>
       </c>
@@ -8518,7 +8231,7 @@
         <v>161</v>
       </c>
       <c r="AG60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH60" t="s">
         <v>164</v>
@@ -8529,32 +8242,29 @@
       <c r="AJ60" t="s">
         <v>166</v>
       </c>
-      <c r="AK60" t="s">
-        <v>206</v>
-      </c>
       <c r="AL60">
         <v>999</v>
       </c>
       <c r="AN60" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO60" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP60" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ60" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR60" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS60" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3124</v>
       </c>
@@ -8640,7 +8350,7 @@
         <v>161</v>
       </c>
       <c r="AG61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH61" t="s">
         <v>164</v>
@@ -8651,32 +8361,29 @@
       <c r="AJ61" t="s">
         <v>166</v>
       </c>
-      <c r="AK61" t="s">
-        <v>207</v>
-      </c>
       <c r="AL61">
         <v>999</v>
       </c>
       <c r="AN61" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO61" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP61" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ61" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR61" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS61" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3125</v>
       </c>
@@ -8762,7 +8469,7 @@
         <v>161</v>
       </c>
       <c r="AG62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH62" t="s">
         <v>164</v>
@@ -8773,32 +8480,29 @@
       <c r="AJ62" t="s">
         <v>166</v>
       </c>
-      <c r="AK62" t="s">
-        <v>208</v>
-      </c>
       <c r="AL62">
         <v>999</v>
       </c>
       <c r="AN62" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO62" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP62" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ62" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR62" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS62" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3127</v>
       </c>
@@ -8884,7 +8588,7 @@
         <v>161</v>
       </c>
       <c r="AG63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH63" t="s">
         <v>164</v>
@@ -8895,32 +8599,29 @@
       <c r="AJ63" t="s">
         <v>166</v>
       </c>
-      <c r="AK63" t="s">
-        <v>209</v>
-      </c>
       <c r="AL63">
         <v>999</v>
       </c>
       <c r="AN63" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO63" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP63" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ63" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR63" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3128</v>
       </c>
@@ -9006,7 +8707,7 @@
         <v>161</v>
       </c>
       <c r="AG64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH64" t="s">
         <v>164</v>
@@ -9017,32 +8718,29 @@
       <c r="AJ64" t="s">
         <v>166</v>
       </c>
-      <c r="AK64" t="s">
-        <v>210</v>
-      </c>
       <c r="AL64">
         <v>999</v>
       </c>
       <c r="AN64" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO64" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP64" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ64" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR64" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS64" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3129</v>
       </c>
@@ -9128,7 +8826,7 @@
         <v>161</v>
       </c>
       <c r="AG65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH65" t="s">
         <v>164</v>
@@ -9139,32 +8837,29 @@
       <c r="AJ65" t="s">
         <v>166</v>
       </c>
-      <c r="AK65" t="s">
-        <v>211</v>
-      </c>
       <c r="AL65">
         <v>999</v>
       </c>
       <c r="AN65" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO65" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP65" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ65" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR65" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS65" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3130</v>
       </c>
@@ -9250,7 +8945,7 @@
         <v>161</v>
       </c>
       <c r="AG66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH66" t="s">
         <v>164</v>
@@ -9261,32 +8956,29 @@
       <c r="AJ66" t="s">
         <v>166</v>
       </c>
-      <c r="AK66" t="s">
-        <v>212</v>
-      </c>
       <c r="AL66">
         <v>999</v>
       </c>
       <c r="AN66" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO66" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP66" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ66" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR66" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3131</v>
       </c>
@@ -9372,7 +9064,7 @@
         <v>161</v>
       </c>
       <c r="AG67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH67" t="s">
         <v>164</v>
@@ -9383,32 +9075,29 @@
       <c r="AJ67" t="s">
         <v>166</v>
       </c>
-      <c r="AK67" t="s">
-        <v>213</v>
-      </c>
       <c r="AL67">
         <v>999</v>
       </c>
       <c r="AN67" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO67" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP67" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ67" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR67" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS67" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3132</v>
       </c>
@@ -9494,7 +9183,7 @@
         <v>161</v>
       </c>
       <c r="AG68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH68" t="s">
         <v>164</v>
@@ -9505,32 +9194,29 @@
       <c r="AJ68" t="s">
         <v>166</v>
       </c>
-      <c r="AK68" t="s">
-        <v>214</v>
-      </c>
       <c r="AL68">
         <v>999</v>
       </c>
       <c r="AN68" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO68" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP68" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ68" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR68" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS68" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3159</v>
       </c>
@@ -9616,7 +9302,7 @@
         <v>161</v>
       </c>
       <c r="AG69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH69" t="s">
         <v>164</v>
@@ -9627,32 +9313,29 @@
       <c r="AJ69" t="s">
         <v>166</v>
       </c>
-      <c r="AK69" t="s">
-        <v>215</v>
-      </c>
       <c r="AL69">
         <v>999</v>
       </c>
       <c r="AN69" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO69" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP69" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ69" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR69" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS69" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3160</v>
       </c>
@@ -9738,7 +9421,7 @@
         <v>161</v>
       </c>
       <c r="AG70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH70" t="s">
         <v>164</v>
@@ -9749,32 +9432,29 @@
       <c r="AJ70" t="s">
         <v>166</v>
       </c>
-      <c r="AK70" t="s">
-        <v>216</v>
-      </c>
       <c r="AL70">
         <v>999</v>
       </c>
       <c r="AN70" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO70" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP70" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ70" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR70" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3162</v>
       </c>
@@ -9860,7 +9540,7 @@
         <v>161</v>
       </c>
       <c r="AG71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH71" t="s">
         <v>164</v>
@@ -9871,32 +9551,29 @@
       <c r="AJ71" t="s">
         <v>166</v>
       </c>
-      <c r="AK71" t="s">
-        <v>217</v>
-      </c>
       <c r="AL71">
         <v>999</v>
       </c>
       <c r="AN71" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO71" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP71" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ71" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR71" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS71" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3163</v>
       </c>
@@ -9982,7 +9659,7 @@
         <v>161</v>
       </c>
       <c r="AG72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH72" t="s">
         <v>164</v>
@@ -9993,32 +9670,29 @@
       <c r="AJ72" t="s">
         <v>166</v>
       </c>
-      <c r="AK72" t="s">
-        <v>218</v>
-      </c>
       <c r="AL72">
         <v>999</v>
       </c>
       <c r="AN72" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO72" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP72" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ72" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR72" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3165</v>
       </c>
@@ -10104,7 +9778,7 @@
         <v>161</v>
       </c>
       <c r="AG73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH73" t="s">
         <v>164</v>
@@ -10115,32 +9789,29 @@
       <c r="AJ73" t="s">
         <v>166</v>
       </c>
-      <c r="AK73" t="s">
-        <v>219</v>
-      </c>
       <c r="AL73">
         <v>999</v>
       </c>
       <c r="AN73" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO73" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP73" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ73" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR73" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS73" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3166</v>
       </c>
@@ -10226,7 +9897,7 @@
         <v>161</v>
       </c>
       <c r="AG74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH74" t="s">
         <v>164</v>
@@ -10237,32 +9908,29 @@
       <c r="AJ74" t="s">
         <v>166</v>
       </c>
-      <c r="AK74" t="s">
-        <v>220</v>
-      </c>
       <c r="AL74">
         <v>999</v>
       </c>
       <c r="AN74" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO74" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP74" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ74" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR74" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS74" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3391</v>
       </c>
@@ -10348,7 +10016,7 @@
         <v>161</v>
       </c>
       <c r="AG75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH75" t="s">
         <v>164</v>
@@ -10359,40 +10027,40 @@
       <c r="AJ75" t="s">
         <v>166</v>
       </c>
-      <c r="AK75" t="s">
-        <v>221</v>
-      </c>
       <c r="AL75">
         <v>999999</v>
       </c>
       <c r="AN75" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO75" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP75" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ75" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR75" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS75" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4023</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="77" spans="1:45">
+      <c r="C76" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4024</v>
       </c>
@@ -10478,7 +10146,7 @@
         <v>161</v>
       </c>
       <c r="AG77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH77" t="s">
         <v>164</v>
@@ -10489,32 +10157,29 @@
       <c r="AJ77" t="s">
         <v>166</v>
       </c>
-      <c r="AK77" t="s">
-        <v>222</v>
-      </c>
       <c r="AL77">
         <v>999999</v>
       </c>
       <c r="AN77" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO77" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP77" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ77" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR77" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4025</v>
       </c>
@@ -10600,7 +10265,7 @@
         <v>161</v>
       </c>
       <c r="AG78" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH78" t="s">
         <v>164</v>
@@ -10611,32 +10276,29 @@
       <c r="AJ78" t="s">
         <v>166</v>
       </c>
-      <c r="AK78" t="s">
-        <v>223</v>
-      </c>
       <c r="AL78">
         <v>999999</v>
       </c>
       <c r="AN78" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO78" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP78" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ78" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR78" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4172</v>
       </c>
@@ -10722,7 +10384,7 @@
         <v>161</v>
       </c>
       <c r="AG79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH79" t="s">
         <v>164</v>
@@ -10733,32 +10395,29 @@
       <c r="AJ79" t="s">
         <v>166</v>
       </c>
-      <c r="AK79" t="s">
-        <v>224</v>
-      </c>
       <c r="AL79">
         <v>999999</v>
       </c>
       <c r="AN79" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO79" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP79" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ79" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR79" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS79" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4429</v>
       </c>
@@ -10844,7 +10503,7 @@
         <v>161</v>
       </c>
       <c r="AG80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH80" t="s">
         <v>164</v>
@@ -10855,32 +10514,29 @@
       <c r="AJ80" t="s">
         <v>166</v>
       </c>
-      <c r="AK80" t="s">
-        <v>225</v>
-      </c>
       <c r="AL80">
         <v>999999</v>
       </c>
       <c r="AN80" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO80" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP80" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ80" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR80" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS80" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4598</v>
       </c>
@@ -10966,7 +10622,7 @@
         <v>161</v>
       </c>
       <c r="AG81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH81" t="s">
         <v>164</v>
@@ -10977,32 +10633,29 @@
       <c r="AJ81" t="s">
         <v>166</v>
       </c>
-      <c r="AK81" t="s">
-        <v>226</v>
-      </c>
       <c r="AL81">
         <v>999999</v>
       </c>
       <c r="AN81" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO81" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP81" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ81" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR81" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS81" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4904</v>
       </c>
@@ -11088,7 +10741,7 @@
         <v>161</v>
       </c>
       <c r="AG82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH82" t="s">
         <v>164</v>
@@ -11099,32 +10752,29 @@
       <c r="AJ82" t="s">
         <v>166</v>
       </c>
-      <c r="AK82" t="s">
-        <v>227</v>
-      </c>
       <c r="AL82">
         <v>999999</v>
       </c>
       <c r="AN82" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO82" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP82" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ82" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR82" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS82" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5930</v>
       </c>
@@ -11210,7 +10860,7 @@
         <v>161</v>
       </c>
       <c r="AG83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH83" t="s">
         <v>164</v>
@@ -11221,32 +10871,29 @@
       <c r="AJ83" t="s">
         <v>166</v>
       </c>
-      <c r="AK83" t="s">
-        <v>228</v>
-      </c>
       <c r="AL83">
         <v>999999</v>
       </c>
       <c r="AN83" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO83" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP83" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ83" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR83" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS83" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6044</v>
       </c>
@@ -11332,7 +10979,7 @@
         <v>161</v>
       </c>
       <c r="AG84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH84" t="s">
         <v>164</v>
@@ -11343,32 +10990,29 @@
       <c r="AJ84" t="s">
         <v>166</v>
       </c>
-      <c r="AK84" t="s">
-        <v>229</v>
-      </c>
       <c r="AL84">
         <v>999999</v>
       </c>
       <c r="AN84" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO84" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP84" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ84" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR84" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS84" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6048</v>
       </c>
@@ -11454,7 +11098,7 @@
         <v>161</v>
       </c>
       <c r="AG85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH85" t="s">
         <v>164</v>
@@ -11465,32 +11109,29 @@
       <c r="AJ85" t="s">
         <v>166</v>
       </c>
-      <c r="AK85" t="s">
-        <v>230</v>
-      </c>
       <c r="AL85">
         <v>999999</v>
       </c>
       <c r="AN85" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO85" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP85" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ85" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR85" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS85" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>6262</v>
       </c>
@@ -11576,7 +11217,7 @@
         <v>161</v>
       </c>
       <c r="AG86" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH86" t="s">
         <v>164</v>
@@ -11587,32 +11228,29 @@
       <c r="AJ86" t="s">
         <v>166</v>
       </c>
-      <c r="AK86" t="s">
-        <v>231</v>
-      </c>
       <c r="AL86">
         <v>999999</v>
       </c>
       <c r="AN86" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO86" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP86" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ86" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR86" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS86" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6270</v>
       </c>
@@ -11698,7 +11336,7 @@
         <v>161</v>
       </c>
       <c r="AG87" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH87" t="s">
         <v>164</v>
@@ -11709,32 +11347,29 @@
       <c r="AJ87" t="s">
         <v>166</v>
       </c>
-      <c r="AK87" t="s">
-        <v>232</v>
-      </c>
       <c r="AL87">
         <v>999999</v>
       </c>
       <c r="AN87" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO87" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP87" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ87" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR87" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS87" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6280</v>
       </c>
@@ -11820,7 +11455,7 @@
         <v>161</v>
       </c>
       <c r="AG88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH88" t="s">
         <v>164</v>
@@ -11831,32 +11466,29 @@
       <c r="AJ88" t="s">
         <v>166</v>
       </c>
-      <c r="AK88" t="s">
-        <v>233</v>
-      </c>
       <c r="AL88">
         <v>999999</v>
       </c>
       <c r="AN88" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO88" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP88" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ88" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR88" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS88" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6307</v>
       </c>
@@ -11942,7 +11574,7 @@
         <v>161</v>
       </c>
       <c r="AG89" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH89" t="s">
         <v>164</v>
@@ -11953,32 +11585,29 @@
       <c r="AJ89" t="s">
         <v>166</v>
       </c>
-      <c r="AK89" t="s">
-        <v>234</v>
-      </c>
       <c r="AL89">
         <v>999999</v>
       </c>
       <c r="AN89" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO89" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP89" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ89" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR89" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS89" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>6341</v>
       </c>
@@ -12064,7 +11693,7 @@
         <v>161</v>
       </c>
       <c r="AG90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH90" t="s">
         <v>164</v>
@@ -12075,32 +11704,29 @@
       <c r="AJ90" t="s">
         <v>166</v>
       </c>
-      <c r="AK90" t="s">
-        <v>235</v>
-      </c>
       <c r="AL90">
         <v>999999</v>
       </c>
       <c r="AN90" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO90" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP90" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ90" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR90" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS90" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6342</v>
       </c>
@@ -12186,7 +11812,7 @@
         <v>161</v>
       </c>
       <c r="AG91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH91" t="s">
         <v>164</v>
@@ -12197,32 +11823,29 @@
       <c r="AJ91" t="s">
         <v>166</v>
       </c>
-      <c r="AK91" t="s">
-        <v>236</v>
-      </c>
       <c r="AL91">
         <v>999999</v>
       </c>
       <c r="AN91" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO91" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP91" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ91" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR91" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS91" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="92" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6343</v>
       </c>
@@ -12308,7 +11931,7 @@
         <v>161</v>
       </c>
       <c r="AG92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH92" t="s">
         <v>164</v>
@@ -12319,32 +11942,29 @@
       <c r="AJ92" t="s">
         <v>166</v>
       </c>
-      <c r="AK92" t="s">
-        <v>237</v>
-      </c>
       <c r="AL92">
         <v>999999</v>
       </c>
       <c r="AN92" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO92" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP92" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ92" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR92" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS92" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6358</v>
       </c>
@@ -12430,7 +12050,7 @@
         <v>161</v>
       </c>
       <c r="AG93" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH93" t="s">
         <v>164</v>
@@ -12441,32 +12061,29 @@
       <c r="AJ93" t="s">
         <v>166</v>
       </c>
-      <c r="AK93" t="s">
-        <v>238</v>
-      </c>
       <c r="AL93">
         <v>999999</v>
       </c>
       <c r="AN93" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO93" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP93" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ93" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR93" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS93" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>6729</v>
       </c>
@@ -12552,7 +12169,7 @@
         <v>161</v>
       </c>
       <c r="AG94" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AH94" t="s">
         <v>164</v>
@@ -12563,643 +12180,640 @@
       <c r="AJ94" t="s">
         <v>166</v>
       </c>
-      <c r="AK94" t="s">
-        <v>239</v>
-      </c>
       <c r="AL94">
         <v>999999</v>
       </c>
       <c r="AN94" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="AO94" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AP94" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AQ94" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="AR94" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="AS94" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
-    <hyperlink ref="B47" r:id="rId46"/>
-    <hyperlink ref="B48" r:id="rId47"/>
-    <hyperlink ref="B49" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B51" r:id="rId50"/>
-    <hyperlink ref="B52" r:id="rId51"/>
-    <hyperlink ref="B53" r:id="rId52"/>
-    <hyperlink ref="B54" r:id="rId53"/>
-    <hyperlink ref="B55" r:id="rId54"/>
-    <hyperlink ref="B56" r:id="rId55"/>
-    <hyperlink ref="B57" r:id="rId56"/>
-    <hyperlink ref="B58" r:id="rId57"/>
-    <hyperlink ref="B59" r:id="rId58"/>
-    <hyperlink ref="B60" r:id="rId59"/>
-    <hyperlink ref="B61" r:id="rId60"/>
-    <hyperlink ref="B62" r:id="rId61"/>
-    <hyperlink ref="B63" r:id="rId62"/>
-    <hyperlink ref="B64" r:id="rId63"/>
-    <hyperlink ref="B65" r:id="rId64"/>
-    <hyperlink ref="B66" r:id="rId65"/>
-    <hyperlink ref="B67" r:id="rId66"/>
-    <hyperlink ref="B68" r:id="rId67"/>
-    <hyperlink ref="B69" r:id="rId68"/>
-    <hyperlink ref="B70" r:id="rId69"/>
-    <hyperlink ref="B71" r:id="rId70"/>
-    <hyperlink ref="B72" r:id="rId71"/>
-    <hyperlink ref="B73" r:id="rId72"/>
-    <hyperlink ref="B74" r:id="rId73"/>
-    <hyperlink ref="B75" r:id="rId74"/>
-    <hyperlink ref="B76" r:id="rId75"/>
-    <hyperlink ref="B77" r:id="rId76"/>
-    <hyperlink ref="B78" r:id="rId77"/>
-    <hyperlink ref="B79" r:id="rId78"/>
-    <hyperlink ref="B80" r:id="rId79"/>
-    <hyperlink ref="B81" r:id="rId80"/>
-    <hyperlink ref="B82" r:id="rId81"/>
-    <hyperlink ref="B83" r:id="rId82"/>
-    <hyperlink ref="B84" r:id="rId83"/>
-    <hyperlink ref="B85" r:id="rId84"/>
-    <hyperlink ref="B86" r:id="rId85"/>
-    <hyperlink ref="B87" r:id="rId86"/>
-    <hyperlink ref="B88" r:id="rId87"/>
-    <hyperlink ref="B89" r:id="rId88"/>
-    <hyperlink ref="B90" r:id="rId89"/>
-    <hyperlink ref="B91" r:id="rId90"/>
-    <hyperlink ref="B92" r:id="rId91"/>
-    <hyperlink ref="B93" r:id="rId92"/>
-    <hyperlink ref="B94" r:id="rId93"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -704,7 +704,7 @@
     <t>Unit of the largest sampled size column in project file (e.g. mesh size). Used to describe the sampling collection threshold</t>
   </si>
   <si>
-    <t>Additoinal description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
+    <t>Additional description of the sampling method or protocol (e.g. net_aperture:{field:net_surf,unit:square_meter}, fixative:{chemical:glutaraldehyde,concentration:0.1%}, reference: {https://doi.org/...,https://www.protocols.io/view/zooscan-protocol-yxmvmk8j9g3p/v1})</t>
   </si>
 </sst>
 </file>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="317">
   <si>
     <t>Project_ID</t>
   </si>
@@ -519,6 +519,267 @@
   </si>
   <si>
     <t>object_annotation_status</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_14_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_167_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_171_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_174_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_338_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_377_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_378_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_381_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_395_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_397_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_398_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_408_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_409_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_411_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_412_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_415_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_416_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_418_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_493_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_580_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_581_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_652_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_663_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_714_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_734_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_751_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_752_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_758_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_788_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_798_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_896_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_966_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_967_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_968_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_1309_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_1603_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2291_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2307_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2480_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2535_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2668_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2670_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2687_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2717_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2771_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2805_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2832_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_2960_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3119_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3124_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3125_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3127_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3128_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3129_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3130_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3131_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3132_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3159_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3160_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3162_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3163_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3165_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3166_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3391_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3607_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_3657_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_4024_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_4025_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_4172_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_4429_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_4533_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_4534_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_4598_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_4904_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_5785_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_5930_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6044_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6048_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6262_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6270_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6280_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6307_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6341_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6342_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6343_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6358_flags.tsv</t>
+  </si>
+  <si>
+    <t>~/GIT/PSSdb/raw/flags/Zooscan/project_6579_flags.tsv</t>
   </si>
   <si>
     <t>99999;999999</t>
@@ -1315,26 +1576,29 @@
       <c r="AJ2" t="s">
         <v>167</v>
       </c>
+      <c r="AK2" t="s">
+        <v>168</v>
+      </c>
       <c r="AL2">
         <v>999999</v>
       </c>
       <c r="AN2" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO2" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP2" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ2" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR2" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS2" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1434,26 +1698,29 @@
       <c r="AJ3" t="s">
         <v>167</v>
       </c>
+      <c r="AK3" t="s">
+        <v>169</v>
+      </c>
       <c r="AL3">
         <v>999999</v>
       </c>
       <c r="AN3" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO3" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP3" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ3" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR3" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS3" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:45">
@@ -1553,26 +1820,29 @@
       <c r="AJ4" t="s">
         <v>167</v>
       </c>
+      <c r="AK4" t="s">
+        <v>170</v>
+      </c>
       <c r="AL4" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="AN4" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO4" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="AP4" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ4" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR4" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS4" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1672,26 +1942,29 @@
       <c r="AJ5" t="s">
         <v>167</v>
       </c>
+      <c r="AK5" t="s">
+        <v>171</v>
+      </c>
       <c r="AL5" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="AN5" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO5" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP5" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ5" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR5" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS5" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1791,26 +2064,29 @@
       <c r="AJ6" t="s">
         <v>167</v>
       </c>
+      <c r="AK6" t="s">
+        <v>172</v>
+      </c>
       <c r="AL6">
         <v>999999</v>
       </c>
       <c r="AN6" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO6" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP6" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ6" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR6" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS6" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1910,26 +2186,29 @@
       <c r="AJ7" t="s">
         <v>167</v>
       </c>
+      <c r="AK7" t="s">
+        <v>173</v>
+      </c>
       <c r="AL7">
         <v>999999</v>
       </c>
       <c r="AN7" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO7" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP7" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ7" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR7" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS7" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -2029,26 +2308,29 @@
       <c r="AJ8" t="s">
         <v>167</v>
       </c>
+      <c r="AK8" t="s">
+        <v>174</v>
+      </c>
       <c r="AL8">
         <v>9999</v>
       </c>
       <c r="AN8" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO8" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP8" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ8" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR8" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS8" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -2148,26 +2430,29 @@
       <c r="AJ9" t="s">
         <v>167</v>
       </c>
+      <c r="AK9" t="s">
+        <v>175</v>
+      </c>
       <c r="AL9">
         <v>9999</v>
       </c>
       <c r="AN9" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO9" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP9" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ9" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR9" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS9" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -2267,26 +2552,29 @@
       <c r="AJ10" t="s">
         <v>167</v>
       </c>
+      <c r="AK10" t="s">
+        <v>176</v>
+      </c>
       <c r="AL10">
         <v>9999</v>
       </c>
       <c r="AN10" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO10" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP10" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ10" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR10" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS10" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2386,26 +2674,29 @@
       <c r="AJ11" t="s">
         <v>167</v>
       </c>
+      <c r="AK11" t="s">
+        <v>177</v>
+      </c>
       <c r="AL11">
         <v>9999</v>
       </c>
       <c r="AN11" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO11" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP11" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ11" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR11" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS11" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -2505,26 +2796,29 @@
       <c r="AJ12" t="s">
         <v>167</v>
       </c>
+      <c r="AK12" t="s">
+        <v>178</v>
+      </c>
       <c r="AL12">
         <v>999999</v>
       </c>
       <c r="AN12" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO12" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP12" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ12" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR12" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS12" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2624,26 +2918,29 @@
       <c r="AJ13" t="s">
         <v>167</v>
       </c>
+      <c r="AK13" t="s">
+        <v>179</v>
+      </c>
       <c r="AL13">
         <v>9999</v>
       </c>
       <c r="AN13" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO13" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP13" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ13" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR13" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS13" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2743,26 +3040,29 @@
       <c r="AJ14" t="s">
         <v>167</v>
       </c>
+      <c r="AK14" t="s">
+        <v>180</v>
+      </c>
       <c r="AL14">
         <v>9999</v>
       </c>
       <c r="AN14" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO14" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP14" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ14" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR14" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS14" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2862,26 +3162,29 @@
       <c r="AJ15" t="s">
         <v>167</v>
       </c>
+      <c r="AK15" t="s">
+        <v>181</v>
+      </c>
       <c r="AL15">
         <v>999999</v>
       </c>
       <c r="AN15" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO15" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP15" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ15" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR15" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS15" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -2981,26 +3284,29 @@
       <c r="AJ16" t="s">
         <v>167</v>
       </c>
+      <c r="AK16" t="s">
+        <v>182</v>
+      </c>
       <c r="AL16">
         <v>9999</v>
       </c>
       <c r="AN16" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO16" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP16" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ16" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR16" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS16" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -3100,26 +3406,29 @@
       <c r="AJ17" t="s">
         <v>167</v>
       </c>
+      <c r="AK17" t="s">
+        <v>183</v>
+      </c>
       <c r="AL17">
         <v>9999</v>
       </c>
       <c r="AN17" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO17" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP17" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ17" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR17" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS17" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -3219,26 +3528,29 @@
       <c r="AJ18" t="s">
         <v>167</v>
       </c>
+      <c r="AK18" t="s">
+        <v>184</v>
+      </c>
       <c r="AL18">
         <v>9999</v>
       </c>
       <c r="AN18" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO18" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP18" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ18" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR18" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS18" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:45">
@@ -3338,26 +3650,29 @@
       <c r="AJ19" t="s">
         <v>167</v>
       </c>
+      <c r="AK19" t="s">
+        <v>185</v>
+      </c>
       <c r="AL19">
         <v>9999</v>
       </c>
       <c r="AN19" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO19" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP19" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ19" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR19" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS19" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:45">
@@ -3457,26 +3772,29 @@
       <c r="AJ20" t="s">
         <v>167</v>
       </c>
+      <c r="AK20" t="s">
+        <v>186</v>
+      </c>
       <c r="AL20">
         <v>999999</v>
       </c>
       <c r="AN20" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO20" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP20" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ20" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR20" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS20" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -3576,26 +3894,29 @@
       <c r="AJ21" t="s">
         <v>167</v>
       </c>
+      <c r="AK21" t="s">
+        <v>187</v>
+      </c>
       <c r="AL21">
         <v>999999</v>
       </c>
       <c r="AN21" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO21" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP21" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ21" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR21" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS21" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3695,26 +4016,29 @@
       <c r="AJ22" t="s">
         <v>167</v>
       </c>
+      <c r="AK22" t="s">
+        <v>188</v>
+      </c>
       <c r="AL22">
         <v>999999</v>
       </c>
       <c r="AN22" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP22" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ22" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR22" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS22" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -3814,26 +4138,29 @@
       <c r="AJ23" t="s">
         <v>167</v>
       </c>
+      <c r="AK23" t="s">
+        <v>189</v>
+      </c>
       <c r="AL23">
         <v>999999</v>
       </c>
       <c r="AN23" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO23" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP23" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ23" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR23" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS23" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -3933,26 +4260,29 @@
       <c r="AJ24" t="s">
         <v>167</v>
       </c>
+      <c r="AK24" t="s">
+        <v>190</v>
+      </c>
       <c r="AL24">
         <v>999999</v>
       </c>
       <c r="AN24" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO24" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP24" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ24" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR24" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS24" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -4052,26 +4382,29 @@
       <c r="AJ25" t="s">
         <v>167</v>
       </c>
+      <c r="AK25" t="s">
+        <v>191</v>
+      </c>
       <c r="AL25" t="s">
-        <v>169</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO25" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP25" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ25" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR25" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS25" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -4171,26 +4504,29 @@
       <c r="AJ26" t="s">
         <v>167</v>
       </c>
+      <c r="AK26" t="s">
+        <v>192</v>
+      </c>
       <c r="AL26">
         <v>999999</v>
       </c>
       <c r="AN26" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO26" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP26" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ26" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR26" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS26" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -4290,26 +4626,29 @@
       <c r="AJ27" t="s">
         <v>167</v>
       </c>
+      <c r="AK27" t="s">
+        <v>193</v>
+      </c>
       <c r="AL27">
         <v>999999</v>
       </c>
       <c r="AN27" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO27" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP27" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ27" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR27" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS27" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -4409,26 +4748,29 @@
       <c r="AJ28" t="s">
         <v>167</v>
       </c>
+      <c r="AK28" t="s">
+        <v>194</v>
+      </c>
       <c r="AL28">
         <v>999999</v>
       </c>
       <c r="AN28" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO28" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP28" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ28" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR28" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS28" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -4528,26 +4870,29 @@
       <c r="AJ29" t="s">
         <v>167</v>
       </c>
+      <c r="AK29" t="s">
+        <v>195</v>
+      </c>
       <c r="AL29">
         <v>999999</v>
       </c>
       <c r="AN29" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO29" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP29" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ29" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR29" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS29" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -4647,23 +4992,26 @@
       <c r="AJ30" t="s">
         <v>167</v>
       </c>
+      <c r="AK30" t="s">
+        <v>196</v>
+      </c>
       <c r="AL30" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO30" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP30" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ30" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR30" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -4767,22 +5115,22 @@
         <v>999999</v>
       </c>
       <c r="AN31" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO31" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP31" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ31" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR31" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS31" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -4882,26 +5230,29 @@
       <c r="AJ32" t="s">
         <v>167</v>
       </c>
+      <c r="AK32" t="s">
+        <v>197</v>
+      </c>
       <c r="AL32">
         <v>999999</v>
       </c>
       <c r="AN32" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO32" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP32" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ32" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR32" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS32" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:45">
@@ -5001,26 +5352,29 @@
       <c r="AJ33" t="s">
         <v>167</v>
       </c>
+      <c r="AK33" t="s">
+        <v>198</v>
+      </c>
       <c r="AL33">
         <v>999999</v>
       </c>
       <c r="AN33" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO33" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP33" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ33" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR33" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS33" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:45">
@@ -5120,26 +5474,29 @@
       <c r="AJ34" t="s">
         <v>167</v>
       </c>
+      <c r="AK34" t="s">
+        <v>199</v>
+      </c>
       <c r="AL34">
         <v>999999</v>
       </c>
       <c r="AN34" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO34" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP34" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ34" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR34" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS34" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -5239,26 +5596,29 @@
       <c r="AJ35" t="s">
         <v>167</v>
       </c>
+      <c r="AK35" t="s">
+        <v>200</v>
+      </c>
       <c r="AL35">
         <v>999999</v>
       </c>
       <c r="AN35" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO35" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP35" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ35" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR35" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS35" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:45">
@@ -5358,26 +5718,29 @@
       <c r="AJ36" t="s">
         <v>167</v>
       </c>
+      <c r="AK36" t="s">
+        <v>201</v>
+      </c>
       <c r="AL36">
         <v>999999</v>
       </c>
       <c r="AN36" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO36" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP36" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ36" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR36" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS36" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:45">
@@ -5477,26 +5840,29 @@
       <c r="AJ37" t="s">
         <v>167</v>
       </c>
+      <c r="AK37" t="s">
+        <v>202</v>
+      </c>
       <c r="AL37">
         <v>999999</v>
       </c>
       <c r="AN37" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO37" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP37" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ37" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR37" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS37" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:45">
@@ -5596,26 +5962,29 @@
       <c r="AJ38" t="s">
         <v>167</v>
       </c>
+      <c r="AK38" t="s">
+        <v>203</v>
+      </c>
       <c r="AL38">
         <v>999999</v>
       </c>
       <c r="AN38" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO38" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP38" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ38" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR38" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS38" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:45">
@@ -5719,22 +6088,22 @@
         <v>999999</v>
       </c>
       <c r="AN39" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO39" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP39" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ39" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR39" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS39" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:45">
@@ -5838,22 +6207,22 @@
         <v>999999</v>
       </c>
       <c r="AN40" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO40" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP40" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ40" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR40" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS40" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:45">
@@ -5953,20 +6322,23 @@
       <c r="AJ41" t="s">
         <v>167</v>
       </c>
+      <c r="AK41" t="s">
+        <v>204</v>
+      </c>
       <c r="AL41" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="AN41" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO41" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="AP41" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS41" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:45">
@@ -6066,26 +6438,29 @@
       <c r="AJ42" t="s">
         <v>167</v>
       </c>
+      <c r="AK42" t="s">
+        <v>205</v>
+      </c>
       <c r="AL42">
         <v>999999</v>
       </c>
       <c r="AN42" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO42" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP42" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ42" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR42" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS42" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:45">
@@ -6185,26 +6560,29 @@
       <c r="AJ43" t="s">
         <v>167</v>
       </c>
+      <c r="AK43" t="s">
+        <v>206</v>
+      </c>
       <c r="AL43" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="AN43" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO43" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP43" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ43" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR43" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS43" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:45">
@@ -6304,26 +6682,29 @@
       <c r="AJ44" t="s">
         <v>167</v>
       </c>
+      <c r="AK44" t="s">
+        <v>207</v>
+      </c>
       <c r="AL44">
         <v>999999</v>
       </c>
       <c r="AN44" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO44" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP44" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ44" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR44" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS44" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:45">
@@ -6423,26 +6804,29 @@
       <c r="AJ45" t="s">
         <v>167</v>
       </c>
+      <c r="AK45" t="s">
+        <v>208</v>
+      </c>
       <c r="AL45">
         <v>999</v>
       </c>
       <c r="AN45" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO45" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP45" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ45" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR45" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS45" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:45">
@@ -6542,26 +6926,29 @@
       <c r="AJ46" t="s">
         <v>167</v>
       </c>
+      <c r="AK46" t="s">
+        <v>209</v>
+      </c>
       <c r="AL46">
         <v>999</v>
       </c>
       <c r="AN46" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO46" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP46" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ46" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR46" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS46" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:45">
@@ -6661,26 +7048,29 @@
       <c r="AJ47" t="s">
         <v>167</v>
       </c>
+      <c r="AK47" t="s">
+        <v>210</v>
+      </c>
       <c r="AL47">
         <v>999</v>
       </c>
       <c r="AN47" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO47" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP47" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ47" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR47" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS47" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:45">
@@ -6780,26 +7170,29 @@
       <c r="AJ48" t="s">
         <v>167</v>
       </c>
+      <c r="AK48" t="s">
+        <v>211</v>
+      </c>
       <c r="AL48">
         <v>999999</v>
       </c>
       <c r="AN48" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO48" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP48" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ48" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR48" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS48" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:45">
@@ -6896,26 +7289,29 @@
       <c r="AJ49" t="s">
         <v>167</v>
       </c>
+      <c r="AK49" t="s">
+        <v>212</v>
+      </c>
       <c r="AL49">
         <v>999999</v>
       </c>
       <c r="AN49" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO49" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="AP49" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ49" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR49" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS49" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:45">
@@ -7015,26 +7411,29 @@
       <c r="AJ50" t="s">
         <v>167</v>
       </c>
+      <c r="AK50" t="s">
+        <v>213</v>
+      </c>
       <c r="AL50">
         <v>99999</v>
       </c>
       <c r="AN50" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO50" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP50" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ50" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR50" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS50" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:45">
@@ -7134,26 +7533,29 @@
       <c r="AJ51" t="s">
         <v>167</v>
       </c>
+      <c r="AK51" t="s">
+        <v>214</v>
+      </c>
       <c r="AL51">
         <v>999999</v>
       </c>
       <c r="AN51" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO51" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP51" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ51" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR51" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS51" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:45">
@@ -7253,26 +7655,29 @@
       <c r="AJ52" t="s">
         <v>167</v>
       </c>
+      <c r="AK52" t="s">
+        <v>215</v>
+      </c>
       <c r="AL52">
         <v>999</v>
       </c>
       <c r="AN52" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO52" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP52" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ52" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR52" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS52" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:45">
@@ -7372,26 +7777,29 @@
       <c r="AJ53" t="s">
         <v>167</v>
       </c>
+      <c r="AK53" t="s">
+        <v>216</v>
+      </c>
       <c r="AL53">
         <v>999</v>
       </c>
       <c r="AN53" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO53" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP53" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ53" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR53" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS53" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:45">
@@ -7491,26 +7899,29 @@
       <c r="AJ54" t="s">
         <v>167</v>
       </c>
+      <c r="AK54" t="s">
+        <v>217</v>
+      </c>
       <c r="AL54">
         <v>999</v>
       </c>
       <c r="AN54" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO54" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP54" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ54" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR54" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS54" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:45">
@@ -7610,26 +8021,29 @@
       <c r="AJ55" t="s">
         <v>167</v>
       </c>
+      <c r="AK55" t="s">
+        <v>218</v>
+      </c>
       <c r="AL55">
         <v>999</v>
       </c>
       <c r="AN55" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO55" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP55" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ55" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR55" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS55" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:45">
@@ -7729,26 +8143,29 @@
       <c r="AJ56" t="s">
         <v>167</v>
       </c>
+      <c r="AK56" t="s">
+        <v>219</v>
+      </c>
       <c r="AL56">
         <v>999</v>
       </c>
       <c r="AN56" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO56" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP56" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ56" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR56" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS56" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:45">
@@ -7848,26 +8265,29 @@
       <c r="AJ57" t="s">
         <v>167</v>
       </c>
+      <c r="AK57" t="s">
+        <v>220</v>
+      </c>
       <c r="AL57">
         <v>999</v>
       </c>
       <c r="AN57" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO57" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP57" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ57" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR57" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS57" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:45">
@@ -7967,26 +8387,29 @@
       <c r="AJ58" t="s">
         <v>167</v>
       </c>
+      <c r="AK58" t="s">
+        <v>221</v>
+      </c>
       <c r="AL58">
         <v>999</v>
       </c>
       <c r="AN58" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO58" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP58" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ58" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR58" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS58" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:45">
@@ -8086,26 +8509,29 @@
       <c r="AJ59" t="s">
         <v>167</v>
       </c>
+      <c r="AK59" t="s">
+        <v>222</v>
+      </c>
       <c r="AL59">
         <v>999</v>
       </c>
       <c r="AN59" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO59" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP59" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ59" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR59" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS59" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:45">
@@ -8205,26 +8631,29 @@
       <c r="AJ60" t="s">
         <v>167</v>
       </c>
+      <c r="AK60" t="s">
+        <v>223</v>
+      </c>
       <c r="AL60">
         <v>999</v>
       </c>
       <c r="AN60" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO60" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP60" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ60" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR60" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS60" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:45">
@@ -8324,26 +8753,29 @@
       <c r="AJ61" t="s">
         <v>167</v>
       </c>
+      <c r="AK61" t="s">
+        <v>224</v>
+      </c>
       <c r="AL61">
         <v>999</v>
       </c>
       <c r="AN61" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO61" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP61" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ61" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR61" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS61" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:45">
@@ -8443,26 +8875,29 @@
       <c r="AJ62" t="s">
         <v>167</v>
       </c>
+      <c r="AK62" t="s">
+        <v>225</v>
+      </c>
       <c r="AL62">
         <v>999</v>
       </c>
       <c r="AN62" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO62" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP62" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ62" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR62" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS62" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:45">
@@ -8562,26 +8997,29 @@
       <c r="AJ63" t="s">
         <v>167</v>
       </c>
+      <c r="AK63" t="s">
+        <v>226</v>
+      </c>
       <c r="AL63">
         <v>999</v>
       </c>
       <c r="AN63" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO63" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP63" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ63" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR63" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS63" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:45">
@@ -8681,26 +9119,29 @@
       <c r="AJ64" t="s">
         <v>167</v>
       </c>
+      <c r="AK64" t="s">
+        <v>227</v>
+      </c>
       <c r="AL64">
         <v>999</v>
       </c>
       <c r="AN64" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO64" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP64" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ64" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR64" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS64" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:45">
@@ -8800,26 +9241,29 @@
       <c r="AJ65" t="s">
         <v>167</v>
       </c>
+      <c r="AK65" t="s">
+        <v>228</v>
+      </c>
       <c r="AL65">
         <v>999</v>
       </c>
       <c r="AN65" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO65" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP65" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ65" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR65" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS65" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:45">
@@ -8919,26 +9363,29 @@
       <c r="AJ66" t="s">
         <v>167</v>
       </c>
+      <c r="AK66" t="s">
+        <v>229</v>
+      </c>
       <c r="AL66">
         <v>999</v>
       </c>
       <c r="AN66" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO66" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP66" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ66" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR66" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS66" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:45">
@@ -9038,26 +9485,29 @@
       <c r="AJ67" t="s">
         <v>167</v>
       </c>
+      <c r="AK67" t="s">
+        <v>230</v>
+      </c>
       <c r="AL67">
         <v>999</v>
       </c>
       <c r="AN67" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO67" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AP67" t="s">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="AQ67" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR67" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS67" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:45">
@@ -9157,26 +9607,29 @@
       <c r="AJ68" t="s">
         <v>167</v>
       </c>
+      <c r="AK68" t="s">
+        <v>231</v>
+      </c>
       <c r="AL68" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="AN68" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO68" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP68" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ68" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR68" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS68" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:45">
@@ -9276,26 +9729,29 @@
       <c r="AJ69" t="s">
         <v>167</v>
       </c>
+      <c r="AK69" t="s">
+        <v>232</v>
+      </c>
       <c r="AL69">
         <v>999999</v>
       </c>
       <c r="AN69" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO69" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP69" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ69" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR69" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS69" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:45">
@@ -9395,26 +9851,29 @@
       <c r="AJ70" t="s">
         <v>167</v>
       </c>
+      <c r="AK70" t="s">
+        <v>233</v>
+      </c>
       <c r="AL70">
         <v>999999</v>
       </c>
       <c r="AN70" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO70" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP70" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ70" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR70" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS70" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:45">
@@ -9525,26 +9984,29 @@
       <c r="AJ72" t="s">
         <v>167</v>
       </c>
+      <c r="AK72" t="s">
+        <v>234</v>
+      </c>
       <c r="AL72">
         <v>999999</v>
       </c>
       <c r="AN72" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO72" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP72" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ72" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR72" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS72" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:45">
@@ -9644,26 +10106,29 @@
       <c r="AJ73" t="s">
         <v>167</v>
       </c>
+      <c r="AK73" t="s">
+        <v>235</v>
+      </c>
       <c r="AL73">
         <v>999999</v>
       </c>
       <c r="AN73" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO73" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP73" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ73" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR73" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS73" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:45">
@@ -9763,26 +10228,29 @@
       <c r="AJ74" t="s">
         <v>167</v>
       </c>
+      <c r="AK74" t="s">
+        <v>236</v>
+      </c>
       <c r="AL74">
         <v>999999</v>
       </c>
       <c r="AN74" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO74" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP74" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ74" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR74" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS74" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:45">
@@ -9882,26 +10350,29 @@
       <c r="AJ75" t="s">
         <v>167</v>
       </c>
+      <c r="AK75" t="s">
+        <v>237</v>
+      </c>
       <c r="AL75">
         <v>999999</v>
       </c>
       <c r="AN75" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO75" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP75" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ75" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR75" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS75" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:45">
@@ -10001,26 +10472,29 @@
       <c r="AJ76" t="s">
         <v>167</v>
       </c>
+      <c r="AK76" t="s">
+        <v>238</v>
+      </c>
       <c r="AL76">
         <v>999999</v>
       </c>
       <c r="AN76" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO76" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP76" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ76" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR76" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS76" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:45">
@@ -10120,26 +10594,29 @@
       <c r="AJ77" t="s">
         <v>167</v>
       </c>
+      <c r="AK77" t="s">
+        <v>239</v>
+      </c>
       <c r="AL77">
         <v>999999</v>
       </c>
       <c r="AN77" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO77" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP77" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ77" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR77" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS77" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:45">
@@ -10239,26 +10716,29 @@
       <c r="AJ78" t="s">
         <v>167</v>
       </c>
+      <c r="AK78" t="s">
+        <v>240</v>
+      </c>
       <c r="AL78">
         <v>999999</v>
       </c>
       <c r="AN78" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO78" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP78" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ78" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR78" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS78" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:45">
@@ -10358,26 +10838,29 @@
       <c r="AJ79" t="s">
         <v>167</v>
       </c>
+      <c r="AK79" t="s">
+        <v>241</v>
+      </c>
       <c r="AL79" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="AN79" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO79" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP79" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ79" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR79" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS79" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:45">
@@ -10477,26 +10960,29 @@
       <c r="AJ80" t="s">
         <v>167</v>
       </c>
+      <c r="AK80" t="s">
+        <v>242</v>
+      </c>
       <c r="AL80" t="s">
-        <v>171</v>
+        <v>258</v>
       </c>
       <c r="AN80" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO80" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP80" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ80" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR80" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS80" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:45">
@@ -10596,26 +11082,29 @@
       <c r="AJ81" t="s">
         <v>167</v>
       </c>
+      <c r="AK81" t="s">
+        <v>243</v>
+      </c>
       <c r="AL81">
         <v>999999</v>
       </c>
       <c r="AN81" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO81" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP81" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ81" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR81" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS81" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:45">
@@ -10715,26 +11204,29 @@
       <c r="AJ82" t="s">
         <v>167</v>
       </c>
+      <c r="AK82" t="s">
+        <v>244</v>
+      </c>
       <c r="AL82">
         <v>999999</v>
       </c>
       <c r="AN82" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO82" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP82" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ82" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR82" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS82" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:45">
@@ -10834,26 +11326,29 @@
       <c r="AJ83" t="s">
         <v>167</v>
       </c>
+      <c r="AK83" t="s">
+        <v>245</v>
+      </c>
       <c r="AL83">
         <v>999999</v>
       </c>
       <c r="AN83" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO83" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP83" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ83" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR83" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS83" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:45">
@@ -10957,22 +11452,22 @@
         <v>999999</v>
       </c>
       <c r="AN84" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO84" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP84" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ84" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR84" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS84" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:45">
@@ -11072,26 +11567,29 @@
       <c r="AJ85" t="s">
         <v>167</v>
       </c>
+      <c r="AK85" t="s">
+        <v>246</v>
+      </c>
       <c r="AL85">
         <v>999999</v>
       </c>
       <c r="AN85" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO85" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP85" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ85" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR85" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS85" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:45">
@@ -11191,26 +11689,29 @@
       <c r="AJ86" t="s">
         <v>167</v>
       </c>
+      <c r="AK86" t="s">
+        <v>247</v>
+      </c>
       <c r="AL86">
         <v>999999</v>
       </c>
       <c r="AN86" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO86" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP86" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ86" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR86" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS86" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:45">
@@ -11310,26 +11811,29 @@
       <c r="AJ87" t="s">
         <v>167</v>
       </c>
+      <c r="AK87" t="s">
+        <v>248</v>
+      </c>
       <c r="AL87">
         <v>999999</v>
       </c>
       <c r="AN87" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO87" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP87" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ87" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR87" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS87" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:45">
@@ -11429,26 +11933,29 @@
       <c r="AJ88" t="s">
         <v>167</v>
       </c>
+      <c r="AK88" t="s">
+        <v>249</v>
+      </c>
       <c r="AL88">
         <v>999999</v>
       </c>
       <c r="AN88" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO88" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP88" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ88" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR88" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS88" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:45">
@@ -11548,26 +12055,29 @@
       <c r="AJ89" t="s">
         <v>167</v>
       </c>
+      <c r="AK89" t="s">
+        <v>250</v>
+      </c>
       <c r="AL89">
         <v>999999</v>
       </c>
       <c r="AN89" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO89" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP89" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ89" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR89" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS89" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:45">
@@ -11667,26 +12177,29 @@
       <c r="AJ90" t="s">
         <v>167</v>
       </c>
+      <c r="AK90" t="s">
+        <v>251</v>
+      </c>
       <c r="AL90">
         <v>999999</v>
       </c>
       <c r="AN90" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO90" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP90" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ90" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR90" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS90" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:45">
@@ -11786,26 +12299,29 @@
       <c r="AJ91" t="s">
         <v>167</v>
       </c>
+      <c r="AK91" t="s">
+        <v>252</v>
+      </c>
       <c r="AL91">
         <v>999999</v>
       </c>
       <c r="AN91" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO91" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP91" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ91" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR91" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS91" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:45">
@@ -11905,26 +12421,29 @@
       <c r="AJ92" t="s">
         <v>167</v>
       </c>
+      <c r="AK92" t="s">
+        <v>253</v>
+      </c>
       <c r="AL92">
         <v>999999</v>
       </c>
       <c r="AN92" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO92" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP92" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ92" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR92" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS92" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:45">
@@ -12018,26 +12537,29 @@
       <c r="AJ93" t="s">
         <v>167</v>
       </c>
+      <c r="AK93" t="s">
+        <v>254</v>
+      </c>
       <c r="AL93">
         <v>999999</v>
       </c>
       <c r="AN93" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO93" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP93" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ93" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR93" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS93" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:45">
@@ -12141,22 +12663,22 @@
         <v>999999</v>
       </c>
       <c r="AN94" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="AO94" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="AP94" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AQ94" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="AR94" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="AS94" t="s">
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:45">
@@ -12284,13 +12806,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -12298,10 +12820,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12309,10 +12831,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12320,10 +12842,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -12331,10 +12853,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12342,10 +12864,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12353,10 +12875,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -12364,10 +12886,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12375,10 +12897,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -12386,10 +12908,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -12397,10 +12919,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -12408,10 +12930,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -12419,10 +12941,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -12430,10 +12952,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -12441,10 +12963,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -12452,10 +12974,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -12463,10 +12985,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -12474,10 +12996,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -12485,10 +13007,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -12496,10 +13018,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -12507,10 +13029,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -12518,10 +13040,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -12529,10 +13051,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -12540,10 +13062,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -12551,10 +13073,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -12562,10 +13084,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -12573,10 +13095,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -12584,10 +13106,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -12595,10 +13117,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -12606,10 +13128,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s">
-        <v>213</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -12617,10 +13139,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
-        <v>214</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -12628,10 +13150,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -12639,10 +13161,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -12650,10 +13172,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -12661,10 +13183,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -12672,10 +13194,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C36" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -12683,10 +13205,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -12694,10 +13216,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -12705,10 +13227,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C39" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -12716,10 +13238,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -12727,10 +13249,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -12738,10 +13260,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -12749,10 +13271,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -12760,10 +13282,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -12771,10 +13293,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -12782,10 +13304,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -19085,20 +19085,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Variable_types</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
@@ -19870,6 +19870,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -510,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS92"/>
+  <dimension ref="A1:AS91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16031,11 +16031,11 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5785</v>
+        <v>5930</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/5785</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/5930</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -16194,13 +16194,11 @@
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5785_flags.csv</t>
-        </is>
-      </c>
-      <c r="AL78" t="inlineStr">
-        <is>
-          <t>99999;nan</t>
-        </is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5930_flags.csv</t>
+        </is>
+      </c>
+      <c r="AL78" t="n">
+        <v>999999</v>
       </c>
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
@@ -16236,11 +16234,11 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5930</v>
+        <v>6044</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/5930</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6044</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16399,7 +16397,7 @@
       </c>
       <c r="AK79" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_5930_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6044_flags.csv</t>
         </is>
       </c>
       <c r="AL79" t="n">
@@ -16439,11 +16437,11 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6044</v>
+        <v>6048</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6044</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6048</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16602,7 +16600,7 @@
       </c>
       <c r="AK80" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6044_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6048_flags.csv</t>
         </is>
       </c>
       <c r="AL80" t="n">
@@ -16642,11 +16640,11 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>6048</v>
+        <v>6111</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6048</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6111</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16805,7 +16803,7 @@
       </c>
       <c r="AK81" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6048_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6111_flags.csv</t>
         </is>
       </c>
       <c r="AL81" t="n">
@@ -16845,11 +16843,11 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>6111</v>
+        <v>6262</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6111</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6262</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -17008,7 +17006,7 @@
       </c>
       <c r="AK82" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6111_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6262_flags.csv</t>
         </is>
       </c>
       <c r="AL82" t="n">
@@ -17048,11 +17046,11 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>6262</v>
+        <v>6270</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6262</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6270</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -17211,7 +17209,7 @@
       </c>
       <c r="AK83" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6262_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6270_flags.csv</t>
         </is>
       </c>
       <c r="AL83" t="n">
@@ -17251,11 +17249,11 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>6270</v>
+        <v>6280</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6270</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6280</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17414,7 +17412,7 @@
       </c>
       <c r="AK84" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6270_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6280_flags.csv</t>
         </is>
       </c>
       <c r="AL84" t="n">
@@ -17454,11 +17452,11 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6280</v>
+        <v>6307</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6280</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6307</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17617,7 +17615,7 @@
       </c>
       <c r="AK85" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6280_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6307_flags.csv</t>
         </is>
       </c>
       <c r="AL85" t="n">
@@ -17657,11 +17655,11 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6307</v>
+        <v>6341</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6307</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6341</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17820,7 +17818,7 @@
       </c>
       <c r="AK86" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6307_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6341_flags.csv</t>
         </is>
       </c>
       <c r="AL86" t="n">
@@ -17860,11 +17858,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6341</v>
+        <v>6342</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6341</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6342</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -18023,7 +18021,7 @@
       </c>
       <c r="AK87" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6341_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6342_flags.csv</t>
         </is>
       </c>
       <c r="AL87" t="n">
@@ -18063,11 +18061,11 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>6342</v>
+        <v>6343</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6342</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6343</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -18226,7 +18224,7 @@
       </c>
       <c r="AK88" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6342_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6343_flags.csv</t>
         </is>
       </c>
       <c r="AL88" t="n">
@@ -18266,11 +18264,11 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6343</v>
+        <v>6358</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6343</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6358</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18429,7 +18427,7 @@
       </c>
       <c r="AK89" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6343_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6358_flags.csv</t>
         </is>
       </c>
       <c r="AL89" t="n">
@@ -18469,11 +18467,11 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>6358</v>
+        <v>6579</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6358</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6579</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18491,16 +18489,8 @@
           <t>sample_program</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sample_stationid</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>sample_tow_nb</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>sample_id</t>
@@ -18632,7 +18622,7 @@
       </c>
       <c r="AK90" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6358_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6579_flags.csv</t>
         </is>
       </c>
       <c r="AL90" t="n">
@@ -18672,11 +18662,11 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6579</v>
+        <v>6729</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6579</t>
+          <t>https://ecotaxa.obs-vlfr.fr/prj/6729</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18694,8 +18684,16 @@
           <t>sample_program</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>sample_stationid</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>sample_tow_nb</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>sample_id</t>
@@ -18827,7 +18825,7 @@
       </c>
       <c r="AK91" t="inlineStr">
         <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6579_flags.csv</t>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6729_flags.csv</t>
         </is>
       </c>
       <c r="AL91" t="n">
@@ -18860,209 +18858,6 @@
         </is>
       </c>
       <c r="AS91" t="inlineStr">
-        <is>
-          <t>net_mesh:{field:sample_net_mesh,unit:micrometer};net_aperture:{field:sample_net_surf,unit:square_meter}</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>6729</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://ecotaxa.obs-vlfr.fr/prj/6729</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/ecotaxa</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Zooscan</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>sample_program</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>sample_stationid</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>sample_tow_nb</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>sample_id</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>object_lat</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>degree</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>object_lon</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>degree</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>object_depth_min</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>meter</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>object_depth_max</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>meter</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>object_date</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>%Y%m%d</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>object_time</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>%H%M%S</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>sample_tot_vol</t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>cubic_meter</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>acq_sub_part</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>object_id</t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>object_area</t>
-        </is>
-      </c>
-      <c r="AD92" t="inlineStr">
-        <is>
-          <t>square_pixel</t>
-        </is>
-      </c>
-      <c r="AE92" t="inlineStr">
-        <is>
-          <t>object_minor</t>
-        </is>
-      </c>
-      <c r="AF92" t="inlineStr">
-        <is>
-          <t>pixel</t>
-        </is>
-      </c>
-      <c r="AG92" t="inlineStr">
-        <is>
-          <t>process_particle_pixel_size_mm</t>
-        </is>
-      </c>
-      <c r="AH92" t="inlineStr">
-        <is>
-          <t>millimeter_per_pixel</t>
-        </is>
-      </c>
-      <c r="AI92" t="inlineStr">
-        <is>
-          <t>object_annotation_category</t>
-        </is>
-      </c>
-      <c r="AJ92" t="inlineStr">
-        <is>
-          <t>object_annotation_status</t>
-        </is>
-      </c>
-      <c r="AK92" t="inlineStr">
-        <is>
-          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_6729_flags.csv</t>
-        </is>
-      </c>
-      <c r="AL92" t="n">
-        <v>999999</v>
-      </c>
-      <c r="AM92" t="inlineStr"/>
-      <c r="AN92" t="inlineStr">
-        <is>
-          <t>sample_net_type</t>
-        </is>
-      </c>
-      <c r="AO92" t="inlineStr">
-        <is>
-          <t>acq_min_mesh</t>
-        </is>
-      </c>
-      <c r="AP92" t="inlineStr">
-        <is>
-          <t>micrometer</t>
-        </is>
-      </c>
-      <c r="AQ92" t="inlineStr">
-        <is>
-          <t>acq_max_mesh</t>
-        </is>
-      </c>
-      <c r="AR92" t="inlineStr">
-        <is>
-          <t>micrometer</t>
-        </is>
-      </c>
-      <c r="AS92" t="inlineStr">
         <is>
           <t>net_mesh:{field:sample_net_mesh,unit:micrometer};net_aperture:{field:sample_net_surf,unit:square_meter}</t>
         </is>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -1295,7 +1295,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>process_particle_pixel_size_µm</t>
+          <t>process_particle_pixel_size_mm</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -19067,20 +19067,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Variables</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Variable_types</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Description</t>
         </is>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A83DEC-36F1-0547-9468-D54FF4D571E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC3339-1F99-0248-BA31-97B88B1154A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1014,6 +1027,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1027,6 +1041,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1430,9 +1445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomLeft" activeCell="AJ92" sqref="AJ92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dugennem/GIT/PSSdb/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC3339-1F99-0248-BA31-97B88B1154A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4C926B-AA81-424F-88BB-DC25943AF523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,12 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3835" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="320">
   <si>
     <t>Project_ID</t>
   </si>
@@ -681,15 +668,6 @@
     <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3166_flags.csv</t>
   </si>
   <si>
-    <t>https://ecotaxa.obs-vlfr.fr/prj/3274</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_3274_flags.csv</t>
-  </si>
-  <si>
-    <t>999;99999;999999</t>
-  </si>
-  <si>
     <t>https://ecotaxa.obs-vlfr.fr/prj/3391</t>
   </si>
   <si>
@@ -724,12 +702,6 @@
   </si>
   <si>
     <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4025_flags.csv</t>
-  </si>
-  <si>
-    <t>https://ecotaxa.obs-vlfr.fr/prj/4172</t>
-  </si>
-  <si>
-    <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_4172_flags.csv</t>
   </si>
   <si>
     <t>https://ecotaxa.obs-vlfr.fr/prj/4429</t>
@@ -1015,24 +987,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1052,7 +1010,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1075,38 +1033,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1443,203 +1380,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU93"/>
+  <dimension ref="A1:AU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ92" sqref="AJ92"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="85.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9694,7 +9582,7 @@
     </row>
     <row r="65" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>3274</v>
+        <v>3391</v>
       </c>
       <c r="B65" t="s">
         <v>215</v>
@@ -9805,10 +9693,10 @@
         <v>78</v>
       </c>
       <c r="AQ65" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AR65" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AS65" t="s">
         <v>81</v>
@@ -9822,7 +9710,7 @@
     </row>
     <row r="66" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>3391</v>
+        <v>3607</v>
       </c>
       <c r="B66" t="s">
         <v>218</v>
@@ -9926,11 +9814,8 @@
       <c r="AM66" t="s">
         <v>219</v>
       </c>
-      <c r="AN66" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP66" t="s">
-        <v>78</v>
+      <c r="AN66">
+        <v>999999</v>
       </c>
       <c r="AQ66" t="s">
         <v>79</v>
@@ -9950,10 +9835,10 @@
     </row>
     <row r="67" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>3607</v>
+        <v>3657</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
@@ -10052,11 +9937,14 @@
         <v>76</v>
       </c>
       <c r="AM67" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN67">
         <v>999999</v>
       </c>
+      <c r="AP67" t="s">
+        <v>78</v>
+      </c>
       <c r="AQ67" t="s">
         <v>79</v>
       </c>
@@ -10075,10 +9963,10 @@
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>3657</v>
+        <v>4023</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s">
         <v>48</v>
@@ -10086,127 +9974,13 @@
       <c r="D68" t="s">
         <v>49</v>
       </c>
-      <c r="E68" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" t="s">
-        <v>51</v>
-      </c>
-      <c r="G68" t="s">
-        <v>52</v>
-      </c>
-      <c r="H68" t="s">
-        <v>53</v>
-      </c>
-      <c r="I68" t="s">
-        <v>54</v>
-      </c>
-      <c r="J68" t="s">
-        <v>55</v>
-      </c>
-      <c r="K68" t="s">
-        <v>56</v>
-      </c>
-      <c r="L68" t="s">
-        <v>55</v>
-      </c>
-      <c r="M68" t="s">
-        <v>57</v>
-      </c>
-      <c r="N68" t="s">
-        <v>58</v>
-      </c>
-      <c r="O68" t="s">
-        <v>59</v>
-      </c>
-      <c r="P68" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>60</v>
-      </c>
-      <c r="R68" t="s">
-        <v>61</v>
-      </c>
-      <c r="S68" t="s">
-        <v>62</v>
-      </c>
-      <c r="T68" t="s">
-        <v>63</v>
-      </c>
-      <c r="U68" t="s">
-        <v>64</v>
-      </c>
-      <c r="V68" t="s">
-        <v>65</v>
-      </c>
-      <c r="W68" t="s">
-        <v>66</v>
-      </c>
-      <c r="X68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL68" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM68" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN68">
-        <v>999999</v>
-      </c>
-      <c r="AP68" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ68" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR68" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS68" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT68" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU68" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C69" t="s">
         <v>48</v>
@@ -10214,13 +9988,127 @@
       <c r="D69" t="s">
         <v>49</v>
       </c>
+      <c r="E69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F69" t="s">
+        <v>51</v>
+      </c>
+      <c r="G69" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" t="s">
+        <v>55</v>
+      </c>
+      <c r="K69" t="s">
+        <v>56</v>
+      </c>
+      <c r="L69" t="s">
+        <v>55</v>
+      </c>
+      <c r="M69" t="s">
+        <v>57</v>
+      </c>
+      <c r="N69" t="s">
+        <v>58</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>60</v>
+      </c>
+      <c r="R69" t="s">
+        <v>61</v>
+      </c>
+      <c r="S69" t="s">
+        <v>62</v>
+      </c>
+      <c r="T69" t="s">
+        <v>63</v>
+      </c>
+      <c r="U69" t="s">
+        <v>64</v>
+      </c>
+      <c r="V69" t="s">
+        <v>65</v>
+      </c>
+      <c r="W69" t="s">
+        <v>66</v>
+      </c>
+      <c r="X69" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN69">
+        <v>999999</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="70" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
@@ -10319,7 +10207,7 @@
         <v>76</v>
       </c>
       <c r="AM70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AN70">
         <v>999999</v>
@@ -10345,10 +10233,10 @@
     </row>
     <row r="71" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>4025</v>
+        <v>4429</v>
       </c>
       <c r="B71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C71" t="s">
         <v>48</v>
@@ -10447,7 +10335,7 @@
         <v>76</v>
       </c>
       <c r="AM71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN71">
         <v>999999</v>
@@ -10473,10 +10361,10 @@
     </row>
     <row r="72" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>4172</v>
+        <v>4533</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
@@ -10575,7 +10463,7 @@
         <v>76</v>
       </c>
       <c r="AM72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN72">
         <v>999999</v>
@@ -10601,10 +10489,10 @@
     </row>
     <row r="73" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>4429</v>
+        <v>4534</v>
       </c>
       <c r="B73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
         <v>48</v>
@@ -10703,7 +10591,7 @@
         <v>76</v>
       </c>
       <c r="AM73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AN73">
         <v>999999</v>
@@ -10729,10 +10617,10 @@
     </row>
     <row r="74" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>4533</v>
+        <v>4598</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
@@ -10831,7 +10719,7 @@
         <v>76</v>
       </c>
       <c r="AM74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AN74">
         <v>999999</v>
@@ -10857,10 +10745,10 @@
     </row>
     <row r="75" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>4534</v>
+        <v>4904</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C75" t="s">
         <v>48</v>
@@ -10959,10 +10847,10 @@
         <v>76</v>
       </c>
       <c r="AM75" t="s">
-        <v>237</v>
-      </c>
-      <c r="AN75">
-        <v>999999</v>
+        <v>236</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>217</v>
       </c>
       <c r="AP75" t="s">
         <v>78</v>
@@ -10985,10 +10873,10 @@
     </row>
     <row r="76" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>4598</v>
+        <v>5930</v>
       </c>
       <c r="B76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
         <v>48</v>
@@ -11087,7 +10975,7 @@
         <v>76</v>
       </c>
       <c r="AM76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AN76">
         <v>999999</v>
@@ -11113,10 +11001,10 @@
     </row>
     <row r="77" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>4904</v>
+        <v>6048</v>
       </c>
       <c r="B77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C77" t="s">
         <v>48</v>
@@ -11215,10 +11103,10 @@
         <v>76</v>
       </c>
       <c r="AM77" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN77" t="s">
-        <v>220</v>
+        <v>240</v>
+      </c>
+      <c r="AN77">
+        <v>999999</v>
       </c>
       <c r="AP77" t="s">
         <v>78</v>
@@ -11241,10 +11129,10 @@
     </row>
     <row r="78" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>5930</v>
+        <v>6111</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C78" t="s">
         <v>48</v>
@@ -11343,7 +11231,7 @@
         <v>76</v>
       </c>
       <c r="AM78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AN78">
         <v>999999</v>
@@ -11369,10 +11257,10 @@
     </row>
     <row r="79" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>6048</v>
+        <v>6262</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
         <v>48</v>
@@ -11471,7 +11359,7 @@
         <v>76</v>
       </c>
       <c r="AM79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AN79">
         <v>999999</v>
@@ -11497,10 +11385,10 @@
     </row>
     <row r="80" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>6111</v>
+        <v>6270</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -11599,7 +11487,7 @@
         <v>76</v>
       </c>
       <c r="AM80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AN80">
         <v>999999</v>
@@ -11625,10 +11513,10 @@
     </row>
     <row r="81" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>6262</v>
+        <v>6280</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C81" t="s">
         <v>48</v>
@@ -11727,7 +11615,7 @@
         <v>76</v>
       </c>
       <c r="AM81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AN81">
         <v>999999</v>
@@ -11753,10 +11641,10 @@
     </row>
     <row r="82" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>6270</v>
+        <v>6307</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C82" t="s">
         <v>48</v>
@@ -11855,7 +11743,7 @@
         <v>76</v>
       </c>
       <c r="AM82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AN82">
         <v>999999</v>
@@ -11881,10 +11769,10 @@
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>6280</v>
+        <v>6341</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C83" t="s">
         <v>48</v>
@@ -11983,7 +11871,7 @@
         <v>76</v>
       </c>
       <c r="AM83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AN83">
         <v>999999</v>
@@ -12009,10 +11897,10 @@
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6307</v>
+        <v>6342</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
@@ -12111,7 +11999,7 @@
         <v>76</v>
       </c>
       <c r="AM84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AN84">
         <v>999999</v>
@@ -12137,10 +12025,10 @@
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>6341</v>
+        <v>6343</v>
       </c>
       <c r="B85" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
         <v>48</v>
@@ -12239,7 +12127,7 @@
         <v>76</v>
       </c>
       <c r="AM85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AN85">
         <v>999999</v>
@@ -12265,10 +12153,10 @@
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6342</v>
+        <v>6358</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
         <v>48</v>
@@ -12367,7 +12255,7 @@
         <v>76</v>
       </c>
       <c r="AM86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN86">
         <v>999999</v>
@@ -12393,10 +12281,10 @@
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>6343</v>
+        <v>6579</v>
       </c>
       <c r="B87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
         <v>48</v>
@@ -12407,12 +12295,6 @@
       <c r="E87" t="s">
         <v>50</v>
       </c>
-      <c r="F87" t="s">
-        <v>51</v>
-      </c>
-      <c r="G87" t="s">
-        <v>52</v>
-      </c>
       <c r="H87" t="s">
         <v>53</v>
       </c>
@@ -12495,7 +12377,7 @@
         <v>76</v>
       </c>
       <c r="AM87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AN87">
         <v>999999</v>
@@ -12521,10 +12403,10 @@
     </row>
     <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>6358</v>
+        <v>6212</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
         <v>48</v>
@@ -12623,7 +12505,7 @@
         <v>76</v>
       </c>
       <c r="AM88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AN88">
         <v>999999</v>
@@ -12649,10 +12531,10 @@
     </row>
     <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6579</v>
+        <v>8788</v>
       </c>
       <c r="B89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
         <v>48</v>
@@ -12663,6 +12545,12 @@
       <c r="E89" t="s">
         <v>50</v>
       </c>
+      <c r="F89" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89" t="s">
+        <v>52</v>
+      </c>
       <c r="H89" t="s">
         <v>53</v>
       </c>
@@ -12745,10 +12633,10 @@
         <v>76</v>
       </c>
       <c r="AM89" t="s">
-        <v>265</v>
-      </c>
-      <c r="AN89">
-        <v>999999</v>
+        <v>264</v>
+      </c>
+      <c r="AN89" t="s">
+        <v>217</v>
       </c>
       <c r="AP89" t="s">
         <v>78</v>
@@ -12771,10 +12659,10 @@
     </row>
     <row r="90" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>6212</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
         <v>48</v>
@@ -12861,10 +12749,10 @@
         <v>71</v>
       </c>
       <c r="AI90" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AJ90" t="s">
-        <v>74</v>
+        <v>266</v>
       </c>
       <c r="AK90" t="s">
         <v>75</v>
@@ -12875,9 +12763,6 @@
       <c r="AM90" t="s">
         <v>267</v>
       </c>
-      <c r="AN90">
-        <v>999999</v>
-      </c>
       <c r="AP90" t="s">
         <v>78</v>
       </c>
@@ -12899,7 +12784,7 @@
     </row>
     <row r="91" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>8788</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
         <v>268</v>
@@ -13000,12 +12885,6 @@
       <c r="AL91" t="s">
         <v>76</v>
       </c>
-      <c r="AM91" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN91" t="s">
-        <v>220</v>
-      </c>
       <c r="AP91" t="s">
         <v>78</v>
       </c>
@@ -13025,257 +12904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>112</v>
-      </c>
-      <c r="B92" t="s">
-        <v>270</v>
-      </c>
-      <c r="C92" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" t="s">
-        <v>49</v>
-      </c>
-      <c r="E92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92" t="s">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s">
-        <v>52</v>
-      </c>
-      <c r="H92" t="s">
-        <v>53</v>
-      </c>
-      <c r="I92" t="s">
-        <v>54</v>
-      </c>
-      <c r="J92" t="s">
-        <v>55</v>
-      </c>
-      <c r="K92" t="s">
-        <v>56</v>
-      </c>
-      <c r="L92" t="s">
-        <v>55</v>
-      </c>
-      <c r="M92" t="s">
-        <v>57</v>
-      </c>
-      <c r="N92" t="s">
-        <v>58</v>
-      </c>
-      <c r="O92" t="s">
-        <v>59</v>
-      </c>
-      <c r="P92" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>60</v>
-      </c>
-      <c r="R92" t="s">
-        <v>61</v>
-      </c>
-      <c r="S92" t="s">
-        <v>62</v>
-      </c>
-      <c r="T92" t="s">
-        <v>63</v>
-      </c>
-      <c r="U92" t="s">
-        <v>64</v>
-      </c>
-      <c r="V92" t="s">
-        <v>65</v>
-      </c>
-      <c r="W92" t="s">
-        <v>66</v>
-      </c>
-      <c r="X92" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD92" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF92" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH92" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI92" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ92" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK92" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL92" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM92" t="s">
-        <v>272</v>
-      </c>
-      <c r="AP92" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ92" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR92" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS92" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT92" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU92" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>113</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93" t="s">
-        <v>48</v>
-      </c>
-      <c r="D93" t="s">
-        <v>49</v>
-      </c>
-      <c r="E93" t="s">
-        <v>50</v>
-      </c>
-      <c r="F93" t="s">
-        <v>51</v>
-      </c>
-      <c r="G93" t="s">
-        <v>52</v>
-      </c>
-      <c r="H93" t="s">
-        <v>53</v>
-      </c>
-      <c r="I93" t="s">
-        <v>54</v>
-      </c>
-      <c r="J93" t="s">
-        <v>55</v>
-      </c>
-      <c r="K93" t="s">
-        <v>56</v>
-      </c>
-      <c r="L93" t="s">
-        <v>55</v>
-      </c>
-      <c r="M93" t="s">
-        <v>57</v>
-      </c>
-      <c r="N93" t="s">
-        <v>58</v>
-      </c>
-      <c r="O93" t="s">
-        <v>59</v>
-      </c>
-      <c r="P93" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>60</v>
-      </c>
-      <c r="R93" t="s">
-        <v>61</v>
-      </c>
-      <c r="S93" t="s">
-        <v>62</v>
-      </c>
-      <c r="T93" t="s">
-        <v>63</v>
-      </c>
-      <c r="U93" t="s">
-        <v>64</v>
-      </c>
-      <c r="V93" t="s">
-        <v>65</v>
-      </c>
-      <c r="W93" t="s">
-        <v>66</v>
-      </c>
-      <c r="X93" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD93" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF93" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG93" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH93" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI93" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ93" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK93" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL93" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP93" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ93" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR93" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS93" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT93" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU93" t="s">
-        <v>82</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B93" r:id="rId1" xr:uid="{9EFF96BC-A35E-4B4D-81B7-5E6B81A697BB}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -13290,13 +12919,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -13304,10 +12933,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -13315,10 +12944,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -13326,10 +12955,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -13337,10 +12966,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -13348,10 +12977,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
         <v>277</v>
-      </c>
-      <c r="C6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -13359,10 +12988,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -13370,10 +12999,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -13381,10 +13010,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -13392,10 +13021,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -13403,10 +13032,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -13414,10 +13043,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -13425,10 +13054,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -13436,10 +13065,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -13447,10 +13076,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -13458,10 +13087,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -13469,10 +13098,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -13480,10 +13109,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -13491,10 +13120,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -13502,10 +13131,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -13513,10 +13142,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -13524,10 +13153,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -13535,10 +13164,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -13546,10 +13175,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -13557,10 +13186,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -13568,10 +13197,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -13579,10 +13208,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -13590,10 +13219,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -13601,10 +13230,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -13612,10 +13241,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C30" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -13623,10 +13252,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -13634,10 +13263,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -13645,10 +13274,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -13656,10 +13285,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -13667,10 +13296,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -13678,10 +13307,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -13689,10 +13318,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -13700,10 +13329,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C38" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -13711,10 +13340,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C39" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -13722,10 +13351,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -13733,10 +13362,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -13744,10 +13373,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -13755,10 +13384,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -13766,10 +13395,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C44" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -13777,10 +13406,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -13788,10 +13417,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -13799,10 +13428,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -13810,10 +13439,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/raw/project_Zooscan_standardizer.xlsx
+++ b/raw/project_Zooscan_standardizer.xlsx
@@ -19694,7 +19694,11 @@
           <t>object_annotation_status</t>
         </is>
       </c>
-      <c r="AM91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr">
+        <is>
+          <t>~/GIT/PSSdb/raw/flags/ecotaxa/project_113_flags.csv</t>
+        </is>
+      </c>
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr">
